--- a/capiq_data/in_process_data/IQ35644.xlsx
+++ b/capiq_data/in_process_data/IQ35644.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B9199-8A07-4DF0-B20E-A540A740B759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B36B03-5EE0-4524-8955-93AF9AB0CE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4673468c-a3c3-4e1a-ab56-3b54c6fac724"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"24c7f368-7462-4128-b1df-4d2e0e953dd4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>69.02</v>
+        <v>15.333</v>
       </c>
       <c r="D2">
-        <v>1603.723</v>
+        <v>365.65199999999999</v>
       </c>
       <c r="E2">
-        <v>1048.9760000000001</v>
+        <v>290.41199999999998</v>
       </c>
       <c r="F2">
-        <v>470.71499999999997</v>
+        <v>109.245</v>
       </c>
       <c r="G2">
-        <v>2622.8539999999998</v>
+        <v>397.875</v>
       </c>
       <c r="H2">
-        <v>8114.424</v>
+        <v>1596.6320000000001</v>
       </c>
       <c r="I2">
-        <v>181.03299999999999</v>
+        <v>74.882000000000005</v>
       </c>
       <c r="J2">
-        <v>4233.8500000000004</v>
+        <v>974.00599999999997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>924.34500000000003</v>
+        <v>249.52699999999999</v>
       </c>
       <c r="O2">
-        <v>5694.2380000000003</v>
+        <v>1228.3879999999999</v>
       </c>
       <c r="P2">
-        <v>4308.7420000000002</v>
+        <v>975.68200000000002</v>
       </c>
       <c r="Q2">
-        <v>325.55200000000002</v>
+        <v>-7.367</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>36500</v>
+        <v>12200</v>
       </c>
       <c r="T2">
-        <v>2420.1860000000001</v>
+        <v>368.24400000000003</v>
       </c>
       <c r="U2">
-        <v>860.11699999999996</v>
+        <v>31.207000000000001</v>
       </c>
       <c r="V2">
-        <v>120.551</v>
+        <v>112.866</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>356.32100000000003</v>
+        <v>-99.957999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.49099999999999999</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="AA2">
-        <v>69.02</v>
+        <v>15.333</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>94.501999999999995</v>
+        <v>30.934000000000001</v>
       </c>
       <c r="D3">
-        <v>1561.3409999999999</v>
+        <v>394.40199999999999</v>
       </c>
       <c r="E3">
-        <v>1069.4369999999999</v>
+        <v>299.42399999999998</v>
       </c>
       <c r="F3">
-        <v>447.255</v>
+        <v>133.428</v>
       </c>
       <c r="G3">
-        <v>2726.9160000000002</v>
+        <v>418.95699999999999</v>
       </c>
       <c r="H3">
-        <v>8322.9410000000007</v>
+        <v>1625.7370000000001</v>
       </c>
       <c r="I3">
-        <v>227.40100000000001</v>
+        <v>77.344999999999999</v>
       </c>
       <c r="J3">
-        <v>4211.1210000000001</v>
+        <v>932.02499999999998</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-11000.635</v>
+        <v>-851.66700000000003</v>
       </c>
       <c r="N3">
-        <v>1007.373</v>
+        <v>279.69299999999998</v>
       </c>
       <c r="O3">
-        <v>5780.0519999999997</v>
+        <v>1216.473</v>
       </c>
       <c r="P3">
-        <v>4293.6989999999996</v>
+        <v>939.60500000000002</v>
       </c>
       <c r="Q3">
-        <v>145.893</v>
+        <v>-13.763999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2542.8890000000001</v>
+        <v>409.26400000000001</v>
       </c>
       <c r="U3">
-        <v>1006.01</v>
+        <v>17.443000000000001</v>
       </c>
       <c r="V3">
-        <v>329.78300000000002</v>
+        <v>57.831000000000003</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-38.502000000000002</v>
+        <v>-33.765999999999998</v>
       </c>
       <c r="Y3">
-        <v>8.0269999999999992</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.85299999999999998</v>
+        <v>19.593</v>
       </c>
       <c r="AA3">
-        <v>94.501999999999995</v>
+        <v>30.934000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>100.015</v>
+        <v>29.545000000000002</v>
       </c>
       <c r="D4">
-        <v>1659.3810000000001</v>
+        <v>401.01799999999997</v>
       </c>
       <c r="E4">
-        <v>1132.0509999999999</v>
+        <v>297.90699999999998</v>
       </c>
       <c r="F4">
-        <v>496.245</v>
+        <v>129.47300000000001</v>
       </c>
       <c r="G4">
-        <v>2513.364</v>
+        <v>483.34100000000001</v>
       </c>
       <c r="H4">
-        <v>8192.7209999999995</v>
+        <v>1684.0229999999999</v>
       </c>
       <c r="I4">
-        <v>254.12899999999999</v>
+        <v>79.227000000000004</v>
       </c>
       <c r="J4">
-        <v>4210.07</v>
+        <v>935.24699999999996</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1035.6110000000001</v>
+        <v>294.56700000000001</v>
       </c>
       <c r="O4">
-        <v>5830.0910000000003</v>
+        <v>1235.319</v>
       </c>
       <c r="P4">
-        <v>4300.2960000000003</v>
+        <v>950.66600000000005</v>
       </c>
       <c r="Q4">
-        <v>-276.185</v>
+        <v>67.814999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2362.63</v>
+        <v>448.70400000000001</v>
       </c>
       <c r="U4">
-        <v>729.82500000000005</v>
+        <v>85.257999999999996</v>
       </c>
       <c r="V4">
-        <v>204.41</v>
+        <v>76.927000000000007</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-317.42700000000002</v>
+        <v>2.13</v>
       </c>
       <c r="Y4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-6.2380000000000004</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="AA4">
-        <v>100.015</v>
+        <v>29.545000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>44.277999999999999</v>
       </c>
       <c r="D5">
-        <v>1755.9269999999999</v>
+        <v>431.55</v>
       </c>
       <c r="E5">
-        <v>1165.01</v>
+        <v>318.03500000000003</v>
       </c>
       <c r="F5">
-        <v>566.28899999999999</v>
+        <v>154.298</v>
       </c>
       <c r="G5">
-        <v>2370.1669999999999</v>
+        <v>456.10399999999998</v>
       </c>
       <c r="H5">
-        <v>8706.6679999999997</v>
+        <v>1653.0930000000001</v>
       </c>
       <c r="I5">
-        <v>259.459</v>
+        <v>80.325000000000003</v>
       </c>
       <c r="J5">
-        <v>4410.5919999999996</v>
+        <v>813.97699999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1205.92</v>
+        <v>313.64</v>
       </c>
       <c r="O5">
-        <v>6173.3729999999996</v>
+        <v>1154.338</v>
       </c>
       <c r="P5">
-        <v>4524.5940000000001</v>
+        <v>820.40899999999999</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-40.003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2533.2950000000001</v>
+        <v>498.755</v>
       </c>
       <c r="U5">
-        <v>541.20600000000002</v>
+        <v>45.255000000000003</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>112.146</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-128.97399999999999</v>
       </c>
       <c r="Y5">
-        <v>31.504999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>3.887</v>
       </c>
       <c r="AA5">
-        <v>135.36099999999999</v>
+        <v>44.277999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>148.12299999999999</v>
+        <v>32.558</v>
       </c>
       <c r="D6">
-        <v>1751.848</v>
+        <v>426.077</v>
       </c>
       <c r="E6">
-        <v>1195.163</v>
+        <v>333.54599999999999</v>
       </c>
       <c r="F6">
-        <v>585.08799999999997</v>
+        <v>135.196</v>
       </c>
       <c r="G6">
-        <v>2293.2440000000001</v>
+        <v>474.66399999999999</v>
       </c>
       <c r="H6">
-        <v>8903.8080000000009</v>
+        <v>1662.683</v>
       </c>
       <c r="I6">
-        <v>289.65300000000002</v>
+        <v>74.63</v>
       </c>
       <c r="J6">
-        <v>4440.7690000000002</v>
+        <v>811.19</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1164.752</v>
+        <v>298.68099999999998</v>
       </c>
       <c r="O6">
-        <v>6157.4669999999996</v>
+        <v>1138.3240000000001</v>
       </c>
       <c r="P6">
-        <v>4528.1139999999996</v>
+        <v>820.22400000000005</v>
       </c>
       <c r="Q6">
-        <v>-147.45400000000001</v>
+        <v>-8.5440000000000005</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>41000</v>
+        <v>12700</v>
       </c>
       <c r="T6">
-        <v>2746.3409999999999</v>
+        <v>524.35900000000004</v>
       </c>
       <c r="U6">
-        <v>393.75200000000001</v>
+        <v>36.710999999999999</v>
       </c>
       <c r="V6">
-        <v>150.65899999999999</v>
+        <v>17.887</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-31.891999999999999</v>
+        <v>-5.7110000000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>8.8140000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="AA6">
-        <v>148.12299999999999</v>
+        <v>32.558</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>140.12</v>
+        <v>35.978000000000002</v>
       </c>
       <c r="D7">
-        <v>1848.4269999999999</v>
+        <v>422.41</v>
       </c>
       <c r="E7">
-        <v>1266.8689999999999</v>
+        <v>344.238</v>
       </c>
       <c r="F7">
-        <v>599.03200000000004</v>
+        <v>130.77600000000001</v>
       </c>
       <c r="G7">
-        <v>2374.4</v>
+        <v>475.29300000000001</v>
       </c>
       <c r="H7">
-        <v>9157.0840000000007</v>
+        <v>1664.8320000000001</v>
       </c>
       <c r="I7">
-        <v>269.029</v>
+        <v>83.558999999999997</v>
       </c>
       <c r="J7">
-        <v>4374.9570000000003</v>
+        <v>798.70699999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-8658.0010000000002</v>
+        <v>-355.803</v>
       </c>
       <c r="N7">
-        <v>1242.115</v>
+        <v>312.81</v>
       </c>
       <c r="O7">
-        <v>6250.6629999999996</v>
+        <v>1146.3889999999999</v>
       </c>
       <c r="P7">
-        <v>4514.7070000000003</v>
+        <v>800.30399999999997</v>
       </c>
       <c r="Q7">
-        <v>55.537999999999997</v>
+        <v>-5.0140000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2906.4209999999998</v>
+        <v>518.44299999999998</v>
       </c>
       <c r="U7">
-        <v>449.29</v>
+        <v>31.696999999999999</v>
       </c>
       <c r="V7">
-        <v>331.87400000000002</v>
+        <v>83.483999999999995</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-42.656999999999996</v>
+        <v>-71.503</v>
       </c>
       <c r="Y7">
-        <v>50.103999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>10.643000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="AA7">
-        <v>140.12</v>
+        <v>35.978000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>95.337000000000003</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="D8">
-        <v>1911.9680000000001</v>
+        <v>436.79500000000002</v>
       </c>
       <c r="E8">
-        <v>1249.9949999999999</v>
+        <v>347.06400000000002</v>
       </c>
       <c r="F8">
-        <v>612.64599999999996</v>
+        <v>136.24299999999999</v>
       </c>
       <c r="G8">
-        <v>2178.7510000000002</v>
+        <v>591.31200000000001</v>
       </c>
       <c r="H8">
-        <v>9254.9330000000009</v>
+        <v>1784.65</v>
       </c>
       <c r="I8">
-        <v>299.005</v>
+        <v>77.373999999999995</v>
       </c>
       <c r="J8">
-        <v>4348.1639999999998</v>
+        <v>1316.153</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1235.864</v>
+        <v>290.32799999999997</v>
       </c>
       <c r="O8">
-        <v>6224.2380000000003</v>
+        <v>1649.6030000000001</v>
       </c>
       <c r="P8">
-        <v>4521.174</v>
+        <v>1324.452</v>
       </c>
       <c r="Q8">
-        <v>-175.845</v>
+        <v>105.32299999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3030.6950000000002</v>
+        <v>135.047</v>
       </c>
       <c r="U8">
-        <v>273.44499999999999</v>
+        <v>137.02000000000001</v>
       </c>
       <c r="V8">
-        <v>202.10499999999999</v>
+        <v>58.433</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-24.31</v>
+        <v>73.185000000000002</v>
       </c>
       <c r="Y8">
-        <v>67.447999999999993</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-2.5950000000000002</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="AA8">
-        <v>95.337000000000003</v>
+        <v>8.3699999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>144.721</v>
+        <v>54.17</v>
       </c>
       <c r="D9">
-        <v>1944.498</v>
+        <v>473.077</v>
       </c>
       <c r="E9">
-        <v>1248.05</v>
+        <v>339.95499999999998</v>
       </c>
       <c r="F9">
-        <v>617.125</v>
+        <v>164.63900000000001</v>
       </c>
       <c r="G9">
-        <v>2325.674</v>
+        <v>558.05600000000004</v>
       </c>
       <c r="H9">
-        <v>10824.111999999999</v>
+        <v>1767.9739999999999</v>
       </c>
       <c r="I9">
-        <v>272.62700000000001</v>
+        <v>77.846000000000004</v>
       </c>
       <c r="J9">
-        <v>5566.32</v>
+        <v>1313.847</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1336.837</v>
+        <v>325.01100000000002</v>
       </c>
       <c r="O9">
-        <v>7603.7070000000003</v>
+        <v>1696.8019999999999</v>
       </c>
       <c r="P9">
-        <v>5760.7259999999997</v>
+        <v>1322.0129999999999</v>
       </c>
       <c r="Q9">
-        <v>108.749</v>
+        <v>-21.658999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3220.4050000000002</v>
+        <v>71.171999999999997</v>
       </c>
       <c r="U9">
-        <v>382.19400000000002</v>
+        <v>115.361</v>
       </c>
       <c r="V9">
-        <v>366.63400000000001</v>
+        <v>133.76</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-58.49</v>
+        <v>-123.077</v>
       </c>
       <c r="Y9">
-        <v>76.584999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>2.4159999999999999</v>
+        <v>1.631</v>
       </c>
       <c r="AA9">
-        <v>144.721</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>155.839</v>
+        <v>58.811</v>
       </c>
       <c r="D10">
-        <v>2477.0479999999998</v>
+        <v>495.47300000000001</v>
       </c>
       <c r="E10">
-        <v>1424.3030000000001</v>
+        <v>344.29199999999997</v>
       </c>
       <c r="F10">
-        <v>769.58900000000006</v>
+        <v>178.41200000000001</v>
       </c>
       <c r="G10">
-        <v>2887.05</v>
+        <v>544.52599999999995</v>
       </c>
       <c r="H10">
-        <v>16014.633</v>
+        <v>1775.693</v>
       </c>
       <c r="I10">
-        <v>414.14299999999997</v>
+        <v>77.89</v>
       </c>
       <c r="J10">
-        <v>8345.5280000000002</v>
+        <v>1311.252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2016.425</v>
+        <v>292.601</v>
       </c>
       <c r="O10">
-        <v>11517.016</v>
+        <v>1679.2</v>
       </c>
       <c r="P10">
-        <v>8578.57</v>
+        <v>1319.23</v>
       </c>
       <c r="Q10">
-        <v>151.554</v>
+        <v>-18.885999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>53400</v>
+        <v>13000</v>
       </c>
       <c r="T10">
-        <v>4497.6170000000002</v>
+        <v>96.492999999999995</v>
       </c>
       <c r="U10">
-        <v>533.74800000000005</v>
+        <v>96.474999999999994</v>
       </c>
       <c r="V10">
-        <v>200.23500000000001</v>
+        <v>66.317999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>3997.8409999999999</v>
+        <v>-44.335000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-2.25</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="AA10">
-        <v>155.839</v>
+        <v>58.811</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>30.164000000000001</v>
+        <v>36.412999999999997</v>
       </c>
       <c r="D11">
-        <v>2828.7040000000002</v>
+        <v>451.57</v>
       </c>
       <c r="E11">
-        <v>1516.6420000000001</v>
+        <v>346.14499999999998</v>
       </c>
       <c r="F11">
-        <v>867.81299999999999</v>
+        <v>134.86000000000001</v>
       </c>
       <c r="G11">
-        <v>3191.1680000000001</v>
+        <v>742.42600000000004</v>
       </c>
       <c r="H11">
-        <v>16413.476999999999</v>
+        <v>1979.674</v>
       </c>
       <c r="I11">
-        <v>330.24700000000001</v>
+        <v>71.295000000000002</v>
       </c>
       <c r="J11">
-        <v>8187.7889999999998</v>
+        <v>1420.585</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-16861.197</v>
+        <v>-478.65899999999999</v>
       </c>
       <c r="N11">
-        <v>2325.239</v>
+        <v>337.649</v>
       </c>
       <c r="O11">
-        <v>11851.052</v>
+        <v>1840.961</v>
       </c>
       <c r="P11">
-        <v>8522.2289999999994</v>
+        <v>1464.4929999999999</v>
       </c>
       <c r="Q11">
-        <v>165.923</v>
+        <v>208.51900000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4562.4250000000002</v>
+        <v>138.71299999999999</v>
       </c>
       <c r="U11">
-        <v>699.67100000000005</v>
+        <v>304.99400000000003</v>
       </c>
       <c r="V11">
-        <v>379.20699999999999</v>
+        <v>80.649000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-67.391999999999996</v>
+        <v>148.66499999999999</v>
       </c>
       <c r="Y11">
-        <v>106.221</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-8.9999999999999993E-3</v>
+        <v>1.931</v>
       </c>
       <c r="AA11">
-        <v>30.164000000000001</v>
+        <v>36.412999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>254.376</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="D12">
-        <v>2870.413</v>
+        <v>481.10300000000001</v>
       </c>
       <c r="E12">
-        <v>1445.0989999999999</v>
+        <v>346.209</v>
       </c>
       <c r="F12">
-        <v>856.09299999999996</v>
+        <v>145.11699999999999</v>
       </c>
       <c r="G12">
-        <v>3131.8339999999998</v>
+        <v>765.86699999999996</v>
       </c>
       <c r="H12">
-        <v>16455.508999999998</v>
+        <v>2049.3910000000001</v>
       </c>
       <c r="I12">
-        <v>320.06599999999997</v>
+        <v>83.820999999999998</v>
       </c>
       <c r="J12">
-        <v>8109.0659999999998</v>
+        <v>1409.6869999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2214.8879999999999</v>
+        <v>361.53899999999999</v>
       </c>
       <c r="O12">
-        <v>11572.726000000001</v>
+        <v>1862.327</v>
       </c>
       <c r="P12">
-        <v>8489.8160000000007</v>
+        <v>1457.001</v>
       </c>
       <c r="Q12">
-        <v>-81.766999999999996</v>
+        <v>10.612</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4882.7830000000004</v>
+        <v>187.06399999999999</v>
       </c>
       <c r="U12">
-        <v>617.904</v>
+        <v>315.60599999999999</v>
       </c>
       <c r="V12">
-        <v>306.81900000000002</v>
+        <v>78.778000000000006</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-186.357</v>
+        <v>-3.266</v>
       </c>
       <c r="Y12">
-        <v>125.224</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1.726</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="AA12">
-        <v>254.376</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>136.62799999999999</v>
+        <v>38.06</v>
       </c>
       <c r="D13">
-        <v>2998.0880000000002</v>
+        <v>504.06799999999998</v>
       </c>
       <c r="E13">
-        <v>1404.05</v>
+        <v>356.54199999999997</v>
       </c>
       <c r="F13">
-        <v>902.75400000000002</v>
+        <v>156.173</v>
       </c>
       <c r="G13">
-        <v>3381.4079999999999</v>
+        <v>740.57600000000002</v>
       </c>
       <c r="H13">
-        <v>16827.319</v>
+        <v>2037.865</v>
       </c>
       <c r="I13">
-        <v>358.40199999999999</v>
+        <v>71.165999999999997</v>
       </c>
       <c r="J13">
-        <v>8044.2359999999999</v>
+        <v>1272.6479999999999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2453.1260000000002</v>
+        <v>380.07100000000003</v>
       </c>
       <c r="O13">
-        <v>11768.656000000001</v>
+        <v>1758.3050000000001</v>
       </c>
       <c r="P13">
-        <v>8455.4740000000002</v>
+        <v>1322.8720000000001</v>
       </c>
       <c r="Q13">
-        <v>352.79</v>
+        <v>-43.497</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5058.6629999999996</v>
+        <v>279.56</v>
       </c>
       <c r="U13">
-        <v>970.69399999999996</v>
+        <v>272.10899999999998</v>
       </c>
       <c r="V13">
-        <v>733.12800000000004</v>
+        <v>99.644999999999996</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-150.47399999999999</v>
+        <v>-100.86</v>
       </c>
       <c r="Y13">
-        <v>137.19800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3.2509999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="AA13">
-        <v>136.62799999999999</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>212.27799999999999</v>
+        <v>62.798000000000002</v>
       </c>
       <c r="D14">
-        <v>3061.9929999999999</v>
+        <v>543.97699999999998</v>
       </c>
       <c r="E14">
-        <v>1485.163</v>
+        <v>406.93299999999999</v>
       </c>
       <c r="F14">
-        <v>934.16099999999994</v>
+        <v>184.012</v>
       </c>
       <c r="G14">
-        <v>3472.2779999999998</v>
+        <v>605.05799999999999</v>
       </c>
       <c r="H14">
-        <v>17098.877</v>
+        <v>1945.53</v>
       </c>
       <c r="I14">
-        <v>435.46499999999997</v>
+        <v>71.867999999999995</v>
       </c>
       <c r="J14">
-        <v>8141.2309999999998</v>
+        <v>1117.002</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2462.049</v>
+        <v>362.82</v>
       </c>
       <c r="O14">
-        <v>11796.036</v>
+        <v>1605.3720000000001</v>
       </c>
       <c r="P14">
-        <v>8427.9969999999994</v>
+        <v>1167.559</v>
       </c>
       <c r="Q14">
-        <v>-24.445</v>
+        <v>-210.452</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>57400</v>
+        <v>13800</v>
       </c>
       <c r="T14">
-        <v>5302.8410000000003</v>
+        <v>340.15800000000002</v>
       </c>
       <c r="U14">
-        <v>946.24900000000002</v>
+        <v>61.656999999999996</v>
       </c>
       <c r="V14">
-        <v>354.18700000000001</v>
+        <v>34.576000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-78.768000000000001</v>
+        <v>-179.029</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-3.7719999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="AA14">
-        <v>212.27799999999999</v>
+        <v>62.798000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>183.28899999999999</v>
+        <v>52.865000000000002</v>
       </c>
       <c r="D15">
-        <v>3040.2649999999999</v>
+        <v>525.85400000000004</v>
       </c>
       <c r="E15">
-        <v>1539.7280000000001</v>
+        <v>400.44400000000002</v>
       </c>
       <c r="F15">
-        <v>860.49300000000005</v>
+        <v>162.42500000000001</v>
       </c>
       <c r="G15">
-        <v>3707.2330000000002</v>
+        <v>689.495</v>
       </c>
       <c r="H15">
-        <v>17398.342000000001</v>
+        <v>2050.3539999999998</v>
       </c>
       <c r="I15">
-        <v>392.90699999999998</v>
+        <v>80.710999999999999</v>
       </c>
       <c r="J15">
-        <v>7914.5159999999996</v>
+        <v>1105.277</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-16244.612999999999</v>
+        <v>-786.79100000000005</v>
       </c>
       <c r="N15">
-        <v>2566.174</v>
+        <v>381.53699999999998</v>
       </c>
       <c r="O15">
-        <v>11867.925999999999</v>
+        <v>1623.328</v>
       </c>
       <c r="P15">
-        <v>8374.7469999999994</v>
+        <v>1155.3019999999999</v>
       </c>
       <c r="Q15">
-        <v>161.82</v>
+        <v>91.498999999999995</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5530.4160000000002</v>
+        <v>427.02600000000001</v>
       </c>
       <c r="U15">
-        <v>1108.069</v>
+        <v>153.15600000000001</v>
       </c>
       <c r="V15">
-        <v>419.10700000000003</v>
+        <v>126.116</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-62.125</v>
+        <v>5.3209999999999997</v>
       </c>
       <c r="Y15">
-        <v>157.10599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1.419</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="AA15">
-        <v>183.28899999999999</v>
+        <v>52.865000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>147.68299999999999</v>
+        <v>52.401000000000003</v>
       </c>
       <c r="D16">
-        <v>3169.2809999999999</v>
+        <v>541.76300000000003</v>
       </c>
       <c r="E16">
-        <v>1550.252</v>
+        <v>402.04599999999999</v>
       </c>
       <c r="F16">
-        <v>922.74300000000005</v>
+        <v>166.624</v>
       </c>
       <c r="G16">
-        <v>4161.2470000000003</v>
+        <v>748.43299999999999</v>
       </c>
       <c r="H16">
-        <v>17925.571</v>
+        <v>2136.3739999999998</v>
       </c>
       <c r="I16">
-        <v>405.75099999999998</v>
+        <v>71.805000000000007</v>
       </c>
       <c r="J16">
-        <v>8210.9310000000005</v>
+        <v>1094.2470000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2608.1480000000001</v>
+        <v>384.37900000000002</v>
       </c>
       <c r="O16">
-        <v>12208.504000000001</v>
+        <v>1624.7750000000001</v>
       </c>
       <c r="P16">
-        <v>8802.2610000000004</v>
+        <v>1144.115</v>
       </c>
       <c r="Q16">
-        <v>312.904</v>
+        <v>47.545000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5717.067</v>
+        <v>511.59899999999999</v>
       </c>
       <c r="U16">
-        <v>1420.973</v>
+        <v>200.70099999999999</v>
       </c>
       <c r="V16">
-        <v>262.39100000000002</v>
+        <v>90.635999999999996</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>298.77300000000002</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="Y16">
-        <v>179.64699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-64.605999999999995</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="AA16">
-        <v>147.68299999999999</v>
+        <v>52.401000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>184.12200000000001</v>
+        <v>60.386000000000003</v>
       </c>
       <c r="D17">
-        <v>3247.8629999999998</v>
+        <v>585.01099999999997</v>
       </c>
       <c r="E17">
-        <v>1468.5630000000001</v>
+        <v>442.96199999999999</v>
       </c>
       <c r="F17">
-        <v>921.32899999999995</v>
+        <v>188.102</v>
       </c>
       <c r="G17">
-        <v>4178.4350000000004</v>
+        <v>826.87400000000002</v>
       </c>
       <c r="H17">
-        <v>18101.416000000001</v>
+        <v>2430.8910000000001</v>
       </c>
       <c r="I17">
-        <v>442.18299999999999</v>
+        <v>84.364999999999995</v>
       </c>
       <c r="J17">
-        <v>8189.2139999999999</v>
+        <v>1334.6869999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2597.6309999999999</v>
+        <v>445.65300000000002</v>
       </c>
       <c r="O17">
-        <v>12191.198</v>
+        <v>1933.615</v>
       </c>
       <c r="P17">
-        <v>8504.4680000000008</v>
+        <v>1387.9639999999999</v>
       </c>
       <c r="Q17">
-        <v>106.062</v>
+        <v>26.241</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5910.2179999999998</v>
+        <v>497.27600000000001</v>
       </c>
       <c r="U17">
-        <v>1527.0350000000001</v>
+        <v>226.94200000000001</v>
       </c>
       <c r="V17">
-        <v>847.9</v>
+        <v>115.852</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-355.65699999999998</v>
+        <v>157.83500000000001</v>
       </c>
       <c r="Y17">
-        <v>191.68899999999999</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-107.10599999999999</v>
+        <v>0.874</v>
       </c>
       <c r="AA17">
-        <v>184.12200000000001</v>
+        <v>60.386000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>208.02</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3323.2440000000001</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1525.8489999999999</v>
+        <v>453.29500000000002</v>
       </c>
       <c r="F18">
-        <v>956.78300000000002</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3636.17</v>
+        <v>868.72</v>
       </c>
       <c r="H18">
-        <v>17617.432000000001</v>
+        <v>2511.9589999999998</v>
       </c>
       <c r="I18">
-        <v>445.45299999999997</v>
+        <v>96.230999999999995</v>
       </c>
       <c r="J18">
-        <v>8298.6239999999998</v>
+        <v>1322.4680000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2088.6509999999998</v>
+        <v>441.73500000000001</v>
       </c>
       <c r="O18">
-        <v>11427.156000000001</v>
+        <v>1935.6320000000001</v>
       </c>
       <c r="P18">
-        <v>8418.7780000000002</v>
+        <v>1375.8320000000001</v>
       </c>
       <c r="Q18">
-        <v>-561.79399999999998</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>57900</v>
+        <v>15300</v>
       </c>
       <c r="T18">
-        <v>6190.2759999999998</v>
+        <v>576.327</v>
       </c>
       <c r="U18">
-        <v>965.24099999999999</v>
+        <v>251.97900000000001</v>
       </c>
       <c r="V18">
-        <v>-69.991</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-45.97</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-198.947</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>208.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-110.617</v>
+        <v>56.334000000000003</v>
       </c>
       <c r="D19">
-        <v>3286.1379999999999</v>
+        <v>568.30100000000004</v>
       </c>
       <c r="E19">
-        <v>1675.182</v>
+        <v>472.983</v>
       </c>
       <c r="F19">
-        <v>923.52599999999995</v>
+        <v>180.786</v>
       </c>
       <c r="G19">
-        <v>4300.7950000000001</v>
+        <v>961.91700000000003</v>
       </c>
       <c r="H19">
-        <v>18366.663</v>
+        <v>2649.8119999999999</v>
       </c>
       <c r="I19">
-        <v>423.98599999999999</v>
+        <v>91.366</v>
       </c>
       <c r="J19">
-        <v>8148.7139999999999</v>
+        <v>1362.0060000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-13382.203</v>
+        <v>-1748.663</v>
       </c>
       <c r="N19">
-        <v>2679.5160000000001</v>
+        <v>432.86099999999999</v>
       </c>
       <c r="O19">
-        <v>12347.557000000001</v>
+        <v>1973.7090000000001</v>
       </c>
       <c r="P19">
-        <v>8499.6679999999997</v>
+        <v>1368.3520000000001</v>
       </c>
       <c r="Q19">
-        <v>46.03</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6019.1059999999998</v>
+        <v>676.10299999999995</v>
       </c>
       <c r="U19">
-        <v>1011.271</v>
+        <v>317.87900000000002</v>
       </c>
       <c r="V19">
-        <v>410.089</v>
+        <v>111.40600000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-110.86799999999999</v>
+        <v>-19.661999999999999</v>
       </c>
       <c r="Y19">
-        <v>231.43899999999999</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-92.781000000000006</v>
+        <v>2.677</v>
       </c>
       <c r="AA19">
-        <v>-110.617</v>
+        <v>56.334000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>170.477</v>
+        <v>52.942999999999998</v>
       </c>
       <c r="D20">
-        <v>3432.4589999999998</v>
+        <v>606.12099999999998</v>
       </c>
       <c r="E20">
-        <v>1666.9690000000001</v>
+        <v>489.97</v>
       </c>
       <c r="F20">
-        <v>986.38300000000004</v>
+        <v>192.89599999999999</v>
       </c>
       <c r="G20">
-        <v>4780.9210000000003</v>
+        <v>979.20799999999997</v>
       </c>
       <c r="H20">
-        <v>18946.817999999999</v>
+        <v>2751.4929999999999</v>
       </c>
       <c r="I20">
-        <v>490.46</v>
+        <v>101.381</v>
       </c>
       <c r="J20">
-        <v>9101.0519999999997</v>
+        <v>1361.3869999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2334.29</v>
+        <v>458.851</v>
       </c>
       <c r="O20">
-        <v>12736.776</v>
+        <v>1997.8579999999999</v>
       </c>
       <c r="P20">
-        <v>9210.9779999999992</v>
+        <v>1365.867</v>
       </c>
       <c r="Q20">
-        <v>-77.536000000000001</v>
+        <v>-5.1180000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6210.0420000000004</v>
+        <v>753.63499999999999</v>
       </c>
       <c r="U20">
-        <v>933.73500000000001</v>
+        <v>312.76100000000002</v>
       </c>
       <c r="V20">
-        <v>31.442</v>
+        <v>106.19499999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>585.96100000000001</v>
+        <v>9.49</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-522.03899999999999</v>
+        <v>6.0439999999999996</v>
       </c>
       <c r="AA20">
-        <v>170.477</v>
+        <v>52.942999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>215.87200000000001</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3523.154</v>
+        <v>633.42999999999995</v>
       </c>
       <c r="E21">
-        <v>1699.8920000000001</v>
+        <v>504.01799999999997</v>
       </c>
       <c r="F21">
-        <v>1022.139</v>
+        <v>198.21799999999999</v>
       </c>
       <c r="G21">
-        <v>4737.8860000000004</v>
+        <v>1029.181</v>
       </c>
       <c r="H21">
-        <v>18894.828000000001</v>
+        <v>2868.5349999999999</v>
       </c>
       <c r="I21">
-        <v>487.94499999999999</v>
+        <v>99.08</v>
       </c>
       <c r="J21">
-        <v>8830.1990000000005</v>
+        <v>1360.665</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2410.5540000000001</v>
+        <v>470.99099999999999</v>
       </c>
       <c r="O21">
-        <v>12805.492</v>
+        <v>2020.2429999999999</v>
       </c>
       <c r="P21">
-        <v>9197.6270000000004</v>
+        <v>1365.0139999999999</v>
       </c>
       <c r="Q21">
-        <v>113.684</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6089.3360000000002</v>
+        <v>848.29200000000003</v>
       </c>
       <c r="U21">
-        <v>1047.4190000000001</v>
+        <v>337.19600000000003</v>
       </c>
       <c r="V21">
-        <v>678.99599999999998</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-361.214</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>251.89699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>10.493</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>215.87200000000001</v>
+        <v>55.216999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-6</v>
+        <v>64.149000000000001</v>
       </c>
       <c r="D22">
-        <v>3530.846</v>
+        <v>1104.1500000000001</v>
       </c>
       <c r="E22">
-        <v>1724.2280000000001</v>
+        <v>853.56</v>
       </c>
       <c r="F22">
-        <v>1015.715</v>
+        <v>304.85899999999998</v>
       </c>
       <c r="G22">
-        <v>4503.28</v>
+        <v>1654.4079999999999</v>
       </c>
       <c r="H22">
-        <v>18514.875</v>
+        <v>6279.7619999999997</v>
       </c>
       <c r="I22">
-        <v>513.95000000000005</v>
+        <v>212.04900000000001</v>
       </c>
       <c r="J22">
-        <v>9001.3080000000009</v>
+        <v>4085.4349999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2399.1379999999999</v>
+        <v>989.73299999999995</v>
       </c>
       <c r="O22">
-        <v>12566.637000000001</v>
+        <v>5340.5140000000001</v>
       </c>
       <c r="P22">
-        <v>9130.3449999999993</v>
+        <v>4157.2020000000002</v>
       </c>
       <c r="Q22">
-        <v>451.697</v>
+        <v>94.614999999999995</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>60400</v>
+        <v>28000</v>
       </c>
       <c r="T22">
-        <v>5948.2380000000003</v>
+        <v>939.24800000000005</v>
       </c>
       <c r="U22">
-        <v>1499.116</v>
+        <v>431.81099999999998</v>
       </c>
       <c r="V22">
-        <v>436.673</v>
+        <v>183.34399999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-252.84899999999999</v>
+        <v>2742.5070000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>507.29500000000002</v>
+        <v>6.0140000000000002</v>
       </c>
       <c r="AA22">
-        <v>-6</v>
+        <v>64.149000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>97.433999999999997</v>
+        <v>57.469000000000001</v>
       </c>
       <c r="D23">
-        <v>3578.6190000000001</v>
+        <v>1133.1079999999999</v>
       </c>
       <c r="E23">
-        <v>1855.2850000000001</v>
+        <v>859.13800000000003</v>
       </c>
       <c r="F23">
-        <v>996.28599999999994</v>
+        <v>315.33499999999998</v>
       </c>
       <c r="G23">
-        <v>4199.5600000000004</v>
+        <v>1537.4390000000001</v>
       </c>
       <c r="H23">
-        <v>18514.198</v>
+        <v>6189.4539999999997</v>
       </c>
       <c r="I23">
-        <v>480.28800000000001</v>
+        <v>178.298</v>
       </c>
       <c r="J23">
-        <v>8705.0720000000001</v>
+        <v>4039.3330000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-13118.741</v>
+        <v>-898.44299999999998</v>
       </c>
       <c r="N23">
-        <v>2443.6179999999999</v>
+        <v>829.125</v>
       </c>
       <c r="O23">
-        <v>12679.761</v>
+        <v>5133.32</v>
       </c>
       <c r="P23">
-        <v>9117.8459999999995</v>
+        <v>4044.57</v>
       </c>
       <c r="Q23">
-        <v>-457.68900000000002</v>
+        <v>-152.66499999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5834.4369999999999</v>
+        <v>1056.134</v>
       </c>
       <c r="U23">
-        <v>1041.4269999999999</v>
+        <v>279.14600000000002</v>
       </c>
       <c r="V23">
-        <v>429.00200000000001</v>
+        <v>-23.564</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-333.09699999999998</v>
+        <v>-73.619</v>
       </c>
       <c r="Y23">
-        <v>274.78300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>19.373000000000001</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="AA23">
-        <v>97.433999999999997</v>
+        <v>57.469000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>53.381999999999998</v>
+        <v>63.237000000000002</v>
       </c>
       <c r="D24">
-        <v>3714.085</v>
+        <v>1176.586</v>
       </c>
       <c r="E24">
-        <v>1875.403</v>
+        <v>859.16499999999996</v>
       </c>
       <c r="F24">
-        <v>1043.06</v>
+        <v>333.613</v>
       </c>
       <c r="G24">
-        <v>4496.2169999999996</v>
+        <v>1629.623</v>
       </c>
       <c r="H24">
-        <v>18691.63</v>
+        <v>6341.4110000000001</v>
       </c>
       <c r="I24">
-        <v>504.35300000000001</v>
+        <v>190.096</v>
       </c>
       <c r="J24">
-        <v>8679.4189999999999</v>
+        <v>3939.047</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2645.6619999999998</v>
+        <v>981.04700000000003</v>
       </c>
       <c r="O24">
-        <v>12796.023999999999</v>
+        <v>5190.5749999999998</v>
       </c>
       <c r="P24">
-        <v>9101.51</v>
+        <v>3944.0549999999998</v>
       </c>
       <c r="Q24">
-        <v>241.989</v>
+        <v>60.173000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5895.6059999999998</v>
+        <v>1150.836</v>
       </c>
       <c r="U24">
-        <v>1283.4159999999999</v>
+        <v>339.31900000000002</v>
       </c>
       <c r="V24">
-        <v>516.63699999999994</v>
+        <v>256.08999999999997</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-70.456999999999994</v>
+        <v>-91.908000000000001</v>
       </c>
       <c r="Y24">
-        <v>277.83800000000002</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>36.945999999999998</v>
+        <v>7.3460000000000001</v>
       </c>
       <c r="AA24">
-        <v>53.381999999999998</v>
+        <v>63.237000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>571.33199999999999</v>
+        <v>94.855999999999995</v>
       </c>
       <c r="D25">
-        <v>3726.8029999999999</v>
+        <v>1205.056</v>
       </c>
       <c r="E25">
-        <v>1850.425</v>
+        <v>902.745</v>
       </c>
       <c r="F25">
-        <v>1029.174</v>
+        <v>348.00700000000001</v>
       </c>
       <c r="G25">
-        <v>4261.3590000000004</v>
+        <v>1612.758</v>
       </c>
       <c r="H25">
-        <v>18925.652999999998</v>
+        <v>6344.13</v>
       </c>
       <c r="I25">
-        <v>498.42200000000003</v>
+        <v>227.65</v>
       </c>
       <c r="J25">
-        <v>8682.0020000000004</v>
+        <v>3818.1109999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2639.4690000000001</v>
+        <v>1010.357</v>
       </c>
       <c r="O25">
-        <v>12834.518</v>
+        <v>5085.5959999999995</v>
       </c>
       <c r="P25">
-        <v>9124.7659999999996</v>
+        <v>3824.7510000000002</v>
       </c>
       <c r="Q25">
-        <v>-369.92</v>
+        <v>-79.040999999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6091.1350000000002</v>
+        <v>1258.5340000000001</v>
       </c>
       <c r="U25">
-        <v>913.49599999999998</v>
+        <v>260.27800000000002</v>
       </c>
       <c r="V25">
-        <v>535.62300000000005</v>
+        <v>96.936999999999998</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-404.42200000000003</v>
+        <v>-108.66800000000001</v>
       </c>
       <c r="Y25">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-259.90300000000002</v>
+        <v>4.6239999999999997</v>
       </c>
       <c r="AA25">
-        <v>571.33199999999999</v>
+        <v>94.855999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>74.129000000000005</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1239.7090000000001</v>
       </c>
       <c r="E26">
-        <v>1503.95</v>
+        <v>932.38499999999999</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>367.15300000000002</v>
       </c>
       <c r="G26">
-        <v>9246.8829999999998</v>
+        <v>1709.4960000000001</v>
       </c>
       <c r="H26">
-        <v>18755.776000000002</v>
+        <v>6491.8159999999998</v>
       </c>
       <c r="I26">
-        <v>456.61900000000003</v>
+        <v>251.68600000000001</v>
       </c>
       <c r="J26">
-        <v>8944.6759999999995</v>
+        <v>3730.38</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2710.9639999999999</v>
+        <v>1112.172</v>
       </c>
       <c r="O26">
-        <v>12932.777</v>
+        <v>5123.5330000000004</v>
       </c>
       <c r="P26">
-        <v>9104.9380000000001</v>
+        <v>3751.2510000000002</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>49.923999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>70300</v>
+        <v>28900</v>
       </c>
       <c r="T26">
-        <v>5822.9989999999998</v>
+        <v>1368.2829999999999</v>
       </c>
       <c r="U26">
-        <v>674.77599999999995</v>
+        <v>310.202</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>190.108</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>-54.921999999999997</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-15.301</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>74.129000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>447.697</v>
+        <v>76.581999999999994</v>
       </c>
       <c r="D27">
-        <v>2629.3409999999999</v>
+        <v>1244.5309999999999</v>
       </c>
       <c r="E27">
-        <v>1900.5609999999999</v>
+        <v>906.51</v>
       </c>
       <c r="F27">
-        <v>777.29600000000005</v>
+        <v>362.94600000000003</v>
       </c>
       <c r="G27">
-        <v>4603.8999999999996</v>
+        <v>1748.0319999999999</v>
       </c>
       <c r="H27">
-        <v>19388.263999999999</v>
+        <v>6537.9970000000003</v>
       </c>
       <c r="I27">
-        <v>464.79</v>
+        <v>205.29900000000001</v>
       </c>
       <c r="J27">
-        <v>8636.8780000000006</v>
+        <v>3721.373</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-12839.156000000001</v>
+        <v>-3894.64</v>
       </c>
       <c r="N27">
-        <v>2813.5770000000002</v>
+        <v>1043.046</v>
       </c>
       <c r="O27">
-        <v>13067.825000000001</v>
+        <v>5056.3580000000002</v>
       </c>
       <c r="P27">
-        <v>9089.0949999999993</v>
+        <v>3755.5059999999999</v>
       </c>
       <c r="Q27">
-        <v>534.57399999999996</v>
+        <v>46.182000000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6320.4390000000003</v>
+        <v>1481.6389999999999</v>
       </c>
       <c r="U27">
-        <v>1472.232</v>
+        <v>356.38400000000001</v>
       </c>
       <c r="V27">
-        <v>840.678</v>
+        <v>88.031000000000006</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-58.936999999999998</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="Y27">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-4.8280000000000003</v>
+        <v>-14.739000000000001</v>
       </c>
       <c r="AA27">
-        <v>447.697</v>
+        <v>76.581999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>127.001</v>
+        <v>125.024</v>
       </c>
       <c r="D28">
-        <v>2700.0050000000001</v>
+        <v>1278.7909999999999</v>
       </c>
       <c r="E28">
-        <v>2053.8119999999999</v>
+        <v>959.81200000000001</v>
       </c>
       <c r="F28">
-        <v>805.34100000000001</v>
+        <v>387.77800000000002</v>
       </c>
       <c r="G28">
-        <v>4023.768</v>
+        <v>1887.48</v>
       </c>
       <c r="H28">
-        <v>19341.784</v>
+        <v>6671.3819999999996</v>
       </c>
       <c r="I28">
-        <v>439.74099999999999</v>
+        <v>220.54</v>
       </c>
       <c r="J28">
-        <v>8616.1710000000003</v>
+        <v>3698.4029999999998</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2773.3249999999998</v>
+        <v>1073.4690000000001</v>
       </c>
       <c r="O28">
-        <v>13060.183999999999</v>
+        <v>5037.0249999999996</v>
       </c>
       <c r="P28">
-        <v>9093.1370000000006</v>
+        <v>3707.9670000000001</v>
       </c>
       <c r="Q28">
-        <v>-764.83</v>
+        <v>40.518000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6281.6</v>
+        <v>1634.357</v>
       </c>
       <c r="U28">
-        <v>711.99699999999996</v>
+        <v>396.90199999999999</v>
       </c>
       <c r="V28">
-        <v>141.65899999999999</v>
+        <v>125.901</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-306.24099999999999</v>
+        <v>-35.685000000000002</v>
       </c>
       <c r="Y28">
-        <v>294.64299999999997</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>101.764</v>
+        <v>3.081</v>
       </c>
       <c r="AA28">
-        <v>127.001</v>
+        <v>125.024</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-214.476</v>
+        <v>94.454999999999998</v>
       </c>
       <c r="D29">
-        <v>2767.7559999999999</v>
+        <v>1284.2739999999999</v>
       </c>
       <c r="E29">
-        <v>2091.0740000000001</v>
+        <v>976.28499999999997</v>
       </c>
       <c r="F29">
-        <v>816.14700000000005</v>
+        <v>394.03100000000001</v>
       </c>
       <c r="G29">
-        <v>4033.549</v>
+        <v>1920.52</v>
       </c>
       <c r="H29">
-        <v>19013.339</v>
+        <v>6781.4350000000004</v>
       </c>
       <c r="I29">
-        <v>566.91800000000001</v>
+        <v>245.976</v>
       </c>
       <c r="J29">
-        <v>8582.2569999999996</v>
+        <v>3695.5859999999998</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2874.7930000000001</v>
+        <v>1041.58</v>
       </c>
       <c r="O29">
-        <v>13017.32</v>
+        <v>5006.1509999999998</v>
       </c>
       <c r="P29">
-        <v>9098.5249999999996</v>
+        <v>3705.297</v>
       </c>
       <c r="Q29">
-        <v>85.78</v>
+        <v>-5.6020000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5996.0190000000002</v>
+        <v>1775.2840000000001</v>
       </c>
       <c r="U29">
-        <v>846.11</v>
+        <v>391.3</v>
       </c>
       <c r="V29">
-        <v>503.11900000000003</v>
+        <v>95.778000000000006</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-164.654</v>
+        <v>32.095999999999997</v>
       </c>
       <c r="Y29">
-        <v>326.44600000000003</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>71.352999999999994</v>
+        <v>6.3739999999999997</v>
       </c>
       <c r="AA29">
-        <v>-214.476</v>
+        <v>94.454999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>303.39600000000002</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2786.5650000000001</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1714.75</v>
+        <v>927.94899999999996</v>
       </c>
       <c r="F30">
-        <v>844.87800000000004</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>8770.7009999999991</v>
+        <v>1976.25</v>
       </c>
       <c r="H30">
-        <v>18974.536</v>
+        <v>6943.96</v>
       </c>
       <c r="I30">
-        <v>509.11599999999999</v>
+        <v>225.46100000000001</v>
       </c>
       <c r="J30">
-        <v>9158.018</v>
+        <v>3683.8870000000002</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3067.52</v>
+        <v>1086.4960000000001</v>
       </c>
       <c r="O30">
-        <v>13077.11</v>
+        <v>5061.1930000000002</v>
       </c>
       <c r="P30">
-        <v>9336.2309999999998</v>
+        <v>3707.3180000000002</v>
       </c>
       <c r="Q30">
-        <v>-20.067</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>74500</v>
+        <v>31000</v>
       </c>
       <c r="T30">
-        <v>5897.4260000000004</v>
+        <v>1882.7670000000001</v>
       </c>
       <c r="U30">
-        <v>508.23399999999998</v>
+        <v>447.04599999999999</v>
       </c>
       <c r="V30">
-        <v>480.73599999999999</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-236.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>83.772000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>303.39600000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>178.68600000000001</v>
+        <v>86.933999999999997</v>
       </c>
       <c r="D31">
-        <v>2855.444</v>
+        <v>1310.0930000000001</v>
       </c>
       <c r="E31">
-        <v>1830.59</v>
+        <v>959.83699999999999</v>
       </c>
       <c r="F31">
-        <v>819.85900000000004</v>
+        <v>379.88400000000001</v>
       </c>
       <c r="G31">
-        <v>8673.5550000000003</v>
+        <v>2018.4770000000001</v>
       </c>
       <c r="H31">
-        <v>18942.371999999999</v>
+        <v>6990.4319999999998</v>
       </c>
       <c r="I31">
-        <v>437.733</v>
+        <v>211.6</v>
       </c>
       <c r="J31">
-        <v>8991.8850000000002</v>
+        <v>3669.8090000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-13202.225</v>
+        <v>-4052.0659999999998</v>
       </c>
       <c r="N31">
-        <v>2947.5230000000001</v>
+        <v>1070.7339999999999</v>
       </c>
       <c r="O31">
-        <v>13125.79</v>
+        <v>5042.83</v>
       </c>
       <c r="P31">
-        <v>9464.0210000000006</v>
+        <v>3705.4349999999999</v>
       </c>
       <c r="Q31">
-        <v>-71.302000000000007</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5816.5820000000003</v>
+        <v>1947.6020000000001</v>
       </c>
       <c r="U31">
-        <v>358.87400000000002</v>
+        <v>479.31599999999997</v>
       </c>
       <c r="V31">
-        <v>344.70499999999998</v>
+        <v>107.91200000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-222.547</v>
+        <v>-9.3810000000000002</v>
       </c>
       <c r="Y31">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>30.361999999999998</v>
+        <v>4.08</v>
       </c>
       <c r="AA31">
-        <v>178.68600000000001</v>
+        <v>86.933999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>267.27600000000001</v>
+        <v>94.950999999999993</v>
       </c>
       <c r="D32">
-        <v>2889.0529999999999</v>
+        <v>1369.807</v>
       </c>
       <c r="E32">
-        <v>1842.1079999999999</v>
+        <v>1046.665</v>
       </c>
       <c r="F32">
-        <v>819.96400000000006</v>
+        <v>396.52100000000002</v>
       </c>
       <c r="G32">
-        <v>9085.3619999999992</v>
+        <v>1989.239</v>
       </c>
       <c r="H32">
-        <v>19435.563999999998</v>
+        <v>7049.56</v>
       </c>
       <c r="I32">
-        <v>542.27200000000005</v>
+        <v>207.20599999999999</v>
       </c>
       <c r="J32">
-        <v>7895.277</v>
+        <v>3651.9380000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4783.7780000000002</v>
+        <v>1149.46</v>
       </c>
       <c r="O32">
-        <v>13903.898999999999</v>
+        <v>5109.9830000000002</v>
       </c>
       <c r="P32">
-        <v>9944.0869999999995</v>
+        <v>3709.3130000000001</v>
       </c>
       <c r="Q32">
-        <v>32.53</v>
+        <v>-152.33000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5531.665</v>
+        <v>1939.577</v>
       </c>
       <c r="U32">
-        <v>389.26400000000001</v>
+        <v>326.98599999999999</v>
       </c>
       <c r="V32">
-        <v>349.96899999999999</v>
+        <v>147.04499999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-83.361999999999995</v>
+        <v>-178.09299999999999</v>
       </c>
       <c r="Y32">
-        <v>280.29599999999999</v>
+        <v>5.18</v>
       </c>
       <c r="Z32">
-        <v>-7.2249999999999996</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AA32">
-        <v>267.27600000000001</v>
+        <v>94.950999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-136.79599999999999</v>
+        <v>93.91</v>
       </c>
       <c r="D33">
-        <v>2846.53</v>
+        <v>1409.83</v>
       </c>
       <c r="E33">
-        <v>1847.086</v>
+        <v>1056.691</v>
       </c>
       <c r="F33">
-        <v>782.76</v>
+        <v>404.18200000000002</v>
       </c>
       <c r="G33">
-        <v>8929.5010000000002</v>
+        <v>2063.989</v>
       </c>
       <c r="H33">
-        <v>19357.789000000001</v>
+        <v>7171.893</v>
       </c>
       <c r="I33">
-        <v>458.92700000000002</v>
+        <v>212.661</v>
       </c>
       <c r="J33">
-        <v>8158.34</v>
+        <v>3638.3539999999998</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4855.1040000000003</v>
+        <v>1123.75</v>
       </c>
       <c r="O33">
-        <v>14264.115</v>
+        <v>5102.3059999999996</v>
       </c>
       <c r="P33">
-        <v>10224.737999999999</v>
+        <v>3707.5369999999998</v>
       </c>
       <c r="Q33">
-        <v>60.006999999999998</v>
+        <v>60.960999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5093.674</v>
+        <v>2069.587</v>
       </c>
       <c r="U33">
-        <v>448.21499999999997</v>
+        <v>387.947</v>
       </c>
       <c r="V33">
-        <v>417.00900000000001</v>
+        <v>160.19499999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-117.43</v>
+        <v>9.6920000000000002</v>
       </c>
       <c r="Y33">
-        <v>282.33300000000003</v>
+        <v>4.9210000000000003</v>
       </c>
       <c r="Z33">
-        <v>-0.53900000000000003</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="AA33">
-        <v>-136.79599999999999</v>
+        <v>93.91</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-149.77199999999999</v>
+        <v>98.364999999999995</v>
       </c>
       <c r="D34">
-        <v>2821.1239999999998</v>
+        <v>1424.2139999999999</v>
       </c>
       <c r="E34">
-        <v>1858.6079999999999</v>
+        <v>1075.4570000000001</v>
       </c>
       <c r="F34">
-        <v>794.05499999999995</v>
+        <v>412.87</v>
       </c>
       <c r="G34">
-        <v>8424.1589999999997</v>
+        <v>2128.2959999999998</v>
       </c>
       <c r="H34">
-        <v>19110.252</v>
+        <v>7286.0829999999996</v>
       </c>
       <c r="I34">
-        <v>463.27</v>
+        <v>282.88299999999998</v>
       </c>
       <c r="J34">
-        <v>7890.11</v>
+        <v>3644.3069999999998</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4891.1610000000001</v>
+        <v>1163.0630000000001</v>
       </c>
       <c r="O34">
-        <v>14077.213</v>
+        <v>5167.7870000000003</v>
       </c>
       <c r="P34">
-        <v>10102.216</v>
+        <v>3717.05</v>
       </c>
       <c r="Q34">
-        <v>-124.735</v>
+        <v>22.934000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>77700</v>
+        <v>32500</v>
       </c>
       <c r="T34">
-        <v>5033.0389999999998</v>
+        <v>2118.2959999999998</v>
       </c>
       <c r="U34">
-        <v>323.03800000000001</v>
+        <v>410.88099999999997</v>
       </c>
       <c r="V34">
-        <v>419.16399999999999</v>
+        <v>198.54900000000001</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-202.01499999999999</v>
+        <v>-74.344999999999999</v>
       </c>
       <c r="Y34">
-        <v>282.73700000000002</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-8.1519999999999992</v>
+        <v>16.344000000000001</v>
       </c>
       <c r="AA34">
-        <v>-149.77199999999999</v>
+        <v>98.364999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>149.28899999999999</v>
+        <v>96.210999999999999</v>
       </c>
       <c r="D35">
-        <v>2743.1120000000001</v>
+        <v>1410.904</v>
       </c>
       <c r="E35">
-        <v>1953.422</v>
+        <v>1088.5840000000001</v>
       </c>
       <c r="F35">
-        <v>778.17700000000002</v>
+        <v>405.01799999999997</v>
       </c>
       <c r="G35">
-        <v>9225.0759999999991</v>
+        <v>2031.463</v>
       </c>
       <c r="H35">
-        <v>22605.944</v>
+        <v>7235.4110000000001</v>
       </c>
       <c r="I35">
-        <v>365.19200000000001</v>
+        <v>217.125</v>
       </c>
       <c r="J35">
-        <v>5541.1509999999998</v>
+        <v>3595.5749999999998</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-16776.267</v>
+        <v>-2630.739</v>
       </c>
       <c r="N35">
-        <v>8230.8770000000004</v>
+        <v>1026.606</v>
       </c>
       <c r="O35">
-        <v>17376.226999999999</v>
+        <v>5021.67</v>
       </c>
       <c r="P35">
-        <v>13456.893</v>
+        <v>3683.5279999999998</v>
       </c>
       <c r="Q35">
-        <v>146.01400000000001</v>
+        <v>-5.1980000000000004</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5229.7169999999996</v>
+        <v>2213.741</v>
       </c>
       <c r="U35">
-        <v>459.24200000000002</v>
+        <v>405.68299999999999</v>
       </c>
       <c r="V35">
-        <v>22.341999999999999</v>
+        <v>134.249</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>324.95100000000002</v>
+        <v>-40.783999999999999</v>
       </c>
       <c r="Y35">
-        <v>2871.6379999999999</v>
+        <v>4.6580000000000004</v>
       </c>
       <c r="Z35">
-        <v>-4.109</v>
+        <v>10.169</v>
       </c>
       <c r="AA35">
-        <v>149.28899999999999</v>
+        <v>96.210999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>273.55099999999999</v>
+        <v>105.819</v>
       </c>
       <c r="D36">
-        <v>2842.7049999999999</v>
+        <v>1477.808</v>
       </c>
       <c r="E36">
-        <v>2010.8009999999999</v>
+        <v>1128.33</v>
       </c>
       <c r="F36">
-        <v>884.952</v>
+        <v>425.92899999999997</v>
       </c>
       <c r="G36">
-        <v>6390.6289999999999</v>
+        <v>2233.3969999999999</v>
       </c>
       <c r="H36">
-        <v>19930.96</v>
+        <v>7441.0339999999997</v>
       </c>
       <c r="I36">
-        <v>388.95499999999998</v>
+        <v>230.57599999999999</v>
       </c>
       <c r="J36">
-        <v>5116.7110000000002</v>
+        <v>3574.9059999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5706.9440000000004</v>
+        <v>1108.8399999999999</v>
       </c>
       <c r="O36">
-        <v>14502.157999999999</v>
+        <v>5096.0810000000001</v>
       </c>
       <c r="P36">
-        <v>12031.003000000001</v>
+        <v>3671.7069999999999</v>
       </c>
       <c r="Q36">
-        <v>3120.9760000000001</v>
+        <v>138.43</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5428.8019999999997</v>
+        <v>2344.953</v>
       </c>
       <c r="U36">
-        <v>3575.6379999999999</v>
+        <v>544.11300000000006</v>
       </c>
       <c r="V36">
-        <v>1152.586</v>
+        <v>212.38300000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-1635.5039999999999</v>
+        <v>-12.244</v>
       </c>
       <c r="Y36">
-        <v>2950.3359999999998</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="Z36">
-        <v>-4.6920000000000002</v>
+        <v>5.194</v>
       </c>
       <c r="AA36">
-        <v>273.55099999999999</v>
+        <v>105.819</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>143.27000000000001</v>
+        <v>110.93</v>
       </c>
       <c r="D37">
-        <v>2904.078</v>
+        <v>1531.894</v>
       </c>
       <c r="E37">
-        <v>1901.2249999999999</v>
+        <v>1142.8610000000001</v>
       </c>
       <c r="F37">
-        <v>912.90599999999995</v>
+        <v>436.03699999999998</v>
       </c>
       <c r="G37">
-        <v>3998.7179999999998</v>
+        <v>2308.5329999999999</v>
       </c>
       <c r="H37">
-        <v>17451.830000000002</v>
+        <v>7537.7079999999996</v>
       </c>
       <c r="I37">
-        <v>332.13600000000002</v>
+        <v>256.70699999999999</v>
       </c>
       <c r="J37">
-        <v>7742.7209999999995</v>
+        <v>3551.107</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2206.64</v>
+        <v>1113.509</v>
       </c>
       <c r="O37">
-        <v>13643.248</v>
+        <v>5106.7389999999996</v>
       </c>
       <c r="P37">
-        <v>11192.254999999999</v>
+        <v>3656.53</v>
       </c>
       <c r="Q37">
-        <v>-2325.2689999999998</v>
+        <v>37.567</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3808.5819999999999</v>
+        <v>2430.9690000000001</v>
       </c>
       <c r="U37">
-        <v>1253.2560000000001</v>
+        <v>581.67999999999995</v>
       </c>
       <c r="V37">
-        <v>640.71</v>
+        <v>167.48699999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-2693.2109999999998</v>
+        <v>-41.543999999999997</v>
       </c>
       <c r="Y37">
-        <v>2953.8789999999999</v>
+        <v>4.7460000000000004</v>
       </c>
       <c r="Z37">
-        <v>-96.262</v>
+        <v>-0.71299999999999997</v>
       </c>
       <c r="AA37">
-        <v>143.27000000000001</v>
+        <v>110.93</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>244.87100000000001</v>
+        <v>109.724</v>
       </c>
       <c r="D38">
-        <v>2898.5839999999998</v>
+        <v>1526.4079999999999</v>
       </c>
       <c r="E38">
-        <v>1795.598</v>
+        <v>1105.903</v>
       </c>
       <c r="F38">
-        <v>897.95899999999995</v>
+        <v>431.36200000000002</v>
       </c>
       <c r="G38">
-        <v>3690.17</v>
+        <v>2302.5210000000002</v>
       </c>
       <c r="H38">
-        <v>17311.394</v>
+        <v>7558.2359999999999</v>
       </c>
       <c r="I38">
-        <v>403.84</v>
+        <v>176.65700000000001</v>
       </c>
       <c r="J38">
-        <v>7708.9920000000002</v>
+        <v>3532.2170000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2372.098</v>
+        <v>1046.941</v>
       </c>
       <c r="O38">
-        <v>13811.776</v>
+        <v>5032.3519999999999</v>
       </c>
       <c r="P38">
-        <v>11175.946</v>
+        <v>3643.0160000000001</v>
       </c>
       <c r="Q38">
-        <v>-148.423</v>
+        <v>-42.220999999999997</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>65000</v>
+        <v>34000</v>
       </c>
       <c r="T38">
-        <v>3499.6179999999999</v>
+        <v>2525.884</v>
       </c>
       <c r="U38">
-        <v>1102.3720000000001</v>
+        <v>539.45899999999995</v>
       </c>
       <c r="V38">
-        <v>680.53</v>
+        <v>152.59100000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-692.68600000000004</v>
+        <v>-97.5</v>
       </c>
       <c r="Y38">
-        <v>2992.3339999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>90.418000000000006</v>
+        <v>-6.1849999999999996</v>
       </c>
       <c r="AA38">
-        <v>244.87100000000001</v>
+        <v>109.724</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>239.59299999999999</v>
+        <v>109.423</v>
       </c>
       <c r="D39">
-        <v>2841.2370000000001</v>
+        <v>1517.855</v>
       </c>
       <c r="E39">
-        <v>1820.1320000000001</v>
+        <v>1103.7860000000001</v>
       </c>
       <c r="F39">
-        <v>865.78800000000001</v>
+        <v>435.06599999999997</v>
       </c>
       <c r="G39">
-        <v>4023.9389999999999</v>
+        <v>2461.2510000000002</v>
       </c>
       <c r="H39">
-        <v>17596.3</v>
+        <v>7691.7179999999998</v>
       </c>
       <c r="I39">
-        <v>340.09199999999998</v>
+        <v>177.76400000000001</v>
       </c>
       <c r="J39">
-        <v>8197.3349999999991</v>
+        <v>3503.607</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-104.94199999999999</v>
+        <v>-4902.0410000000002</v>
       </c>
       <c r="N39">
-        <v>2220.7460000000001</v>
+        <v>1047.4749999999999</v>
       </c>
       <c r="O39">
-        <v>14234.92</v>
+        <v>5022.5969999999998</v>
       </c>
       <c r="P39">
-        <v>11678.857</v>
+        <v>3615.6280000000002</v>
       </c>
       <c r="Q39">
-        <v>279.77</v>
+        <v>216.45</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3361.38</v>
+        <v>2669.1210000000001</v>
       </c>
       <c r="U39">
-        <v>1381.7639999999999</v>
+        <v>755.90899999999999</v>
       </c>
       <c r="V39">
-        <v>360.38099999999997</v>
+        <v>261.84699999999998</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>96.992000000000004</v>
+        <v>-21.834</v>
       </c>
       <c r="Y39">
-        <v>2979.1709999999998</v>
+        <v>6.1059999999999999</v>
       </c>
       <c r="Z39">
-        <v>-5.0940000000000003</v>
+        <v>3.827</v>
       </c>
       <c r="AA39">
-        <v>239.59299999999999</v>
+        <v>109.423</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>201.602</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2879.9789999999998</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1772.259</v>
+        <v>1070.633</v>
       </c>
       <c r="F40">
-        <v>895.41499999999996</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>5779.83</v>
+        <v>2265.15</v>
       </c>
       <c r="H40">
-        <v>19305.091</v>
+        <v>7577.6809999999996</v>
       </c>
       <c r="I40">
-        <v>357.28300000000002</v>
+        <v>238.21899999999999</v>
       </c>
       <c r="J40">
-        <v>7618.1639999999998</v>
+        <v>3281.53</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4274.5630000000001</v>
+        <v>1118.818</v>
       </c>
       <c r="O40">
-        <v>15729.337</v>
+        <v>4873.5119999999997</v>
       </c>
       <c r="P40">
-        <v>12871.208000000001</v>
+        <v>3387.5819999999999</v>
       </c>
       <c r="Q40">
-        <v>1547.231</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3575.7539999999999</v>
+        <v>2704.1689999999999</v>
       </c>
       <c r="U40">
-        <v>2928.91</v>
+        <v>574.71600000000001</v>
       </c>
       <c r="V40">
-        <v>651.12199999999996</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>1142.5809999999999</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>2986.0790000000002</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="Z40">
-        <v>-136.726</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>201.602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>158.67400000000001</v>
+        <v>119.387</v>
       </c>
       <c r="D41">
-        <v>2924.0659999999998</v>
+        <v>1605.796</v>
       </c>
       <c r="E41">
-        <v>1804.39</v>
+        <v>1082.6759999999999</v>
       </c>
       <c r="F41">
-        <v>952.34699999999998</v>
+        <v>461.322</v>
       </c>
       <c r="G41">
-        <v>3429.6750000000002</v>
+        <v>2262.0050000000001</v>
       </c>
       <c r="H41">
-        <v>17046.671999999999</v>
+        <v>7627.1049999999996</v>
       </c>
       <c r="I41">
-        <v>388.50400000000002</v>
+        <v>321.17899999999997</v>
       </c>
       <c r="J41">
-        <v>7591.9340000000002</v>
+        <v>3259.2339999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2499.241</v>
+        <v>1111.7840000000001</v>
       </c>
       <c r="O41">
-        <v>13989.397999999999</v>
+        <v>4882.26</v>
       </c>
       <c r="P41">
-        <v>11106.072</v>
+        <v>3362.442</v>
       </c>
       <c r="Q41">
-        <v>-2218.3820000000001</v>
+        <v>-40.151000000000003</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3057.2739999999999</v>
+        <v>2744.8449999999998</v>
       </c>
       <c r="U41">
-        <v>710.51400000000001</v>
+        <v>534.56500000000005</v>
       </c>
       <c r="V41">
-        <v>482.72699999999998</v>
+        <v>161.36600000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-2621.2710000000002</v>
+        <v>-86.007000000000005</v>
       </c>
       <c r="Y41">
-        <v>2985.1610000000001</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="Z41">
-        <v>133.667</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="AA41">
-        <v>158.67400000000001</v>
+        <v>119.387</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>69.02</v>
+      </c>
+      <c r="D42">
+        <v>1603.723</v>
+      </c>
+      <c r="E42">
+        <v>1048.9760000000001</v>
+      </c>
+      <c r="F42">
+        <v>470.71499999999997</v>
+      </c>
+      <c r="G42">
+        <v>2622.8539999999998</v>
+      </c>
+      <c r="H42">
+        <v>8114.424</v>
+      </c>
+      <c r="I42">
+        <v>181.03299999999999</v>
+      </c>
+      <c r="J42">
+        <v>4233.8500000000004</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>924.34500000000003</v>
+      </c>
+      <c r="O42">
+        <v>5694.2380000000003</v>
+      </c>
+      <c r="P42">
+        <v>4308.7420000000002</v>
+      </c>
+      <c r="Q42">
+        <v>325.55200000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>36500</v>
+      </c>
+      <c r="T42">
+        <v>2420.1860000000001</v>
+      </c>
+      <c r="U42">
+        <v>860.11699999999996</v>
+      </c>
+      <c r="V42">
+        <v>120.551</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>356.32100000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>69.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>94.501999999999995</v>
+      </c>
+      <c r="D43">
+        <v>1561.3409999999999</v>
+      </c>
+      <c r="E43">
+        <v>1069.4369999999999</v>
+      </c>
+      <c r="F43">
+        <v>447.255</v>
+      </c>
+      <c r="G43">
+        <v>2726.9160000000002</v>
+      </c>
+      <c r="H43">
+        <v>8322.9410000000007</v>
+      </c>
+      <c r="I43">
+        <v>227.40100000000001</v>
+      </c>
+      <c r="J43">
+        <v>4211.1210000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-11000.635</v>
+      </c>
+      <c r="N43">
+        <v>1007.373</v>
+      </c>
+      <c r="O43">
+        <v>5780.0519999999997</v>
+      </c>
+      <c r="P43">
+        <v>4293.6989999999996</v>
+      </c>
+      <c r="Q43">
+        <v>145.893</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2542.8890000000001</v>
+      </c>
+      <c r="U43">
+        <v>1006.01</v>
+      </c>
+      <c r="V43">
+        <v>329.78300000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-38.502000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="Z43">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AA43">
+        <v>94.501999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>100.015</v>
+      </c>
+      <c r="D44">
+        <v>1659.3810000000001</v>
+      </c>
+      <c r="E44">
+        <v>1132.0509999999999</v>
+      </c>
+      <c r="F44">
+        <v>496.245</v>
+      </c>
+      <c r="G44">
+        <v>2513.364</v>
+      </c>
+      <c r="H44">
+        <v>8192.7209999999995</v>
+      </c>
+      <c r="I44">
+        <v>254.12899999999999</v>
+      </c>
+      <c r="J44">
+        <v>4210.07</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1035.6110000000001</v>
+      </c>
+      <c r="O44">
+        <v>5830.0910000000003</v>
+      </c>
+      <c r="P44">
+        <v>4300.2960000000003</v>
+      </c>
+      <c r="Q44">
+        <v>-276.185</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2362.63</v>
+      </c>
+      <c r="U44">
+        <v>729.82500000000005</v>
+      </c>
+      <c r="V44">
+        <v>204.41</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-317.42700000000002</v>
+      </c>
+      <c r="Y44">
+        <v>15</v>
+      </c>
+      <c r="Z44">
+        <v>-6.2380000000000004</v>
+      </c>
+      <c r="AA44">
+        <v>100.015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1755.9269999999999</v>
+      </c>
+      <c r="E45">
+        <v>1165.01</v>
+      </c>
+      <c r="F45">
+        <v>566.28899999999999</v>
+      </c>
+      <c r="G45">
+        <v>2370.1669999999999</v>
+      </c>
+      <c r="H45">
+        <v>8706.6679999999997</v>
+      </c>
+      <c r="I45">
+        <v>259.459</v>
+      </c>
+      <c r="J45">
+        <v>4410.5919999999996</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1205.92</v>
+      </c>
+      <c r="O45">
+        <v>6173.3729999999996</v>
+      </c>
+      <c r="P45">
+        <v>4524.5940000000001</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2533.2950000000001</v>
+      </c>
+      <c r="U45">
+        <v>541.20600000000002</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>31.504999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>135.36099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>148.12299999999999</v>
+      </c>
+      <c r="D46">
+        <v>1751.848</v>
+      </c>
+      <c r="E46">
+        <v>1195.163</v>
+      </c>
+      <c r="F46">
+        <v>585.08799999999997</v>
+      </c>
+      <c r="G46">
+        <v>2293.2440000000001</v>
+      </c>
+      <c r="H46">
+        <v>8903.8080000000009</v>
+      </c>
+      <c r="I46">
+        <v>289.65300000000002</v>
+      </c>
+      <c r="J46">
+        <v>4440.7690000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1164.752</v>
+      </c>
+      <c r="O46">
+        <v>6157.4669999999996</v>
+      </c>
+      <c r="P46">
+        <v>4528.1139999999996</v>
+      </c>
+      <c r="Q46">
+        <v>-147.45400000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>41000</v>
+      </c>
+      <c r="T46">
+        <v>2746.3409999999999</v>
+      </c>
+      <c r="U46">
+        <v>393.75200000000001</v>
+      </c>
+      <c r="V46">
+        <v>150.65899999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-31.891999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>8.8140000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>148.12299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>140.12</v>
+      </c>
+      <c r="D47">
+        <v>1848.4269999999999</v>
+      </c>
+      <c r="E47">
+        <v>1266.8689999999999</v>
+      </c>
+      <c r="F47">
+        <v>599.03200000000004</v>
+      </c>
+      <c r="G47">
+        <v>2374.4</v>
+      </c>
+      <c r="H47">
+        <v>9157.0840000000007</v>
+      </c>
+      <c r="I47">
+        <v>269.029</v>
+      </c>
+      <c r="J47">
+        <v>4374.9570000000003</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-8658.0010000000002</v>
+      </c>
+      <c r="N47">
+        <v>1242.115</v>
+      </c>
+      <c r="O47">
+        <v>6250.6629999999996</v>
+      </c>
+      <c r="P47">
+        <v>4514.7070000000003</v>
+      </c>
+      <c r="Q47">
+        <v>55.537999999999997</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2906.4209999999998</v>
+      </c>
+      <c r="U47">
+        <v>449.29</v>
+      </c>
+      <c r="V47">
+        <v>331.87400000000002</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-42.656999999999996</v>
+      </c>
+      <c r="Y47">
+        <v>50.103999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>10.643000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>140.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>95.337000000000003</v>
+      </c>
+      <c r="D48">
+        <v>1911.9680000000001</v>
+      </c>
+      <c r="E48">
+        <v>1249.9949999999999</v>
+      </c>
+      <c r="F48">
+        <v>612.64599999999996</v>
+      </c>
+      <c r="G48">
+        <v>2178.7510000000002</v>
+      </c>
+      <c r="H48">
+        <v>9254.9330000000009</v>
+      </c>
+      <c r="I48">
+        <v>299.005</v>
+      </c>
+      <c r="J48">
+        <v>4348.1639999999998</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1235.864</v>
+      </c>
+      <c r="O48">
+        <v>6224.2380000000003</v>
+      </c>
+      <c r="P48">
+        <v>4521.174</v>
+      </c>
+      <c r="Q48">
+        <v>-175.845</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3030.6950000000002</v>
+      </c>
+      <c r="U48">
+        <v>273.44499999999999</v>
+      </c>
+      <c r="V48">
+        <v>202.10499999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-24.31</v>
+      </c>
+      <c r="Y48">
+        <v>67.447999999999993</v>
+      </c>
+      <c r="Z48">
+        <v>-2.5950000000000002</v>
+      </c>
+      <c r="AA48">
+        <v>95.337000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>144.721</v>
+      </c>
+      <c r="D49">
+        <v>1944.498</v>
+      </c>
+      <c r="E49">
+        <v>1248.05</v>
+      </c>
+      <c r="F49">
+        <v>617.125</v>
+      </c>
+      <c r="G49">
+        <v>2325.674</v>
+      </c>
+      <c r="H49">
+        <v>10824.111999999999</v>
+      </c>
+      <c r="I49">
+        <v>272.62700000000001</v>
+      </c>
+      <c r="J49">
+        <v>5566.32</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1336.837</v>
+      </c>
+      <c r="O49">
+        <v>7603.7070000000003</v>
+      </c>
+      <c r="P49">
+        <v>5760.7259999999997</v>
+      </c>
+      <c r="Q49">
+        <v>108.749</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3220.4050000000002</v>
+      </c>
+      <c r="U49">
+        <v>382.19400000000002</v>
+      </c>
+      <c r="V49">
+        <v>366.63400000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-58.49</v>
+      </c>
+      <c r="Y49">
+        <v>76.584999999999994</v>
+      </c>
+      <c r="Z49">
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>144.721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>155.839</v>
+      </c>
+      <c r="D50">
+        <v>2477.0479999999998</v>
+      </c>
+      <c r="E50">
+        <v>1424.3030000000001</v>
+      </c>
+      <c r="F50">
+        <v>769.58900000000006</v>
+      </c>
+      <c r="G50">
+        <v>2887.05</v>
+      </c>
+      <c r="H50">
+        <v>16014.633</v>
+      </c>
+      <c r="I50">
+        <v>414.14299999999997</v>
+      </c>
+      <c r="J50">
+        <v>8345.5280000000002</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2016.425</v>
+      </c>
+      <c r="O50">
+        <v>11517.016</v>
+      </c>
+      <c r="P50">
+        <v>8578.57</v>
+      </c>
+      <c r="Q50">
+        <v>151.554</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>53400</v>
+      </c>
+      <c r="T50">
+        <v>4497.6170000000002</v>
+      </c>
+      <c r="U50">
+        <v>533.74800000000005</v>
+      </c>
+      <c r="V50">
+        <v>200.23500000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>3997.8409999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-2.25</v>
+      </c>
+      <c r="AA50">
+        <v>155.839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="D51">
+        <v>2828.7040000000002</v>
+      </c>
+      <c r="E51">
+        <v>1516.6420000000001</v>
+      </c>
+      <c r="F51">
+        <v>867.81299999999999</v>
+      </c>
+      <c r="G51">
+        <v>3191.1680000000001</v>
+      </c>
+      <c r="H51">
+        <v>16413.476999999999</v>
+      </c>
+      <c r="I51">
+        <v>330.24700000000001</v>
+      </c>
+      <c r="J51">
+        <v>8187.7889999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-16861.197</v>
+      </c>
+      <c r="N51">
+        <v>2325.239</v>
+      </c>
+      <c r="O51">
+        <v>11851.052</v>
+      </c>
+      <c r="P51">
+        <v>8522.2289999999994</v>
+      </c>
+      <c r="Q51">
+        <v>165.923</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4562.4250000000002</v>
+      </c>
+      <c r="U51">
+        <v>699.67100000000005</v>
+      </c>
+      <c r="V51">
+        <v>379.20699999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-67.391999999999996</v>
+      </c>
+      <c r="Y51">
+        <v>106.221</v>
+      </c>
+      <c r="Z51">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="AA51">
+        <v>30.164000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>254.376</v>
+      </c>
+      <c r="D52">
+        <v>2870.413</v>
+      </c>
+      <c r="E52">
+        <v>1445.0989999999999</v>
+      </c>
+      <c r="F52">
+        <v>856.09299999999996</v>
+      </c>
+      <c r="G52">
+        <v>3131.8339999999998</v>
+      </c>
+      <c r="H52">
+        <v>16455.508999999998</v>
+      </c>
+      <c r="I52">
+        <v>320.06599999999997</v>
+      </c>
+      <c r="J52">
+        <v>8109.0659999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2214.8879999999999</v>
+      </c>
+      <c r="O52">
+        <v>11572.726000000001</v>
+      </c>
+      <c r="P52">
+        <v>8489.8160000000007</v>
+      </c>
+      <c r="Q52">
+        <v>-81.766999999999996</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4882.7830000000004</v>
+      </c>
+      <c r="U52">
+        <v>617.904</v>
+      </c>
+      <c r="V52">
+        <v>306.81900000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-186.357</v>
+      </c>
+      <c r="Y52">
+        <v>125.224</v>
+      </c>
+      <c r="Z52">
+        <v>-1.726</v>
+      </c>
+      <c r="AA52">
+        <v>254.376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>136.62799999999999</v>
+      </c>
+      <c r="D53">
+        <v>2998.0880000000002</v>
+      </c>
+      <c r="E53">
+        <v>1404.05</v>
+      </c>
+      <c r="F53">
+        <v>902.75400000000002</v>
+      </c>
+      <c r="G53">
+        <v>3381.4079999999999</v>
+      </c>
+      <c r="H53">
+        <v>16827.319</v>
+      </c>
+      <c r="I53">
+        <v>358.40199999999999</v>
+      </c>
+      <c r="J53">
+        <v>8044.2359999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2453.1260000000002</v>
+      </c>
+      <c r="O53">
+        <v>11768.656000000001</v>
+      </c>
+      <c r="P53">
+        <v>8455.4740000000002</v>
+      </c>
+      <c r="Q53">
+        <v>352.79</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>5058.6629999999996</v>
+      </c>
+      <c r="U53">
+        <v>970.69399999999996</v>
+      </c>
+      <c r="V53">
+        <v>733.12800000000004</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-150.47399999999999</v>
+      </c>
+      <c r="Y53">
+        <v>137.19800000000001</v>
+      </c>
+      <c r="Z53">
+        <v>-3.2509999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>136.62799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>212.27799999999999</v>
+      </c>
+      <c r="D54">
+        <v>3061.9929999999999</v>
+      </c>
+      <c r="E54">
+        <v>1485.163</v>
+      </c>
+      <c r="F54">
+        <v>934.16099999999994</v>
+      </c>
+      <c r="G54">
+        <v>3472.2779999999998</v>
+      </c>
+      <c r="H54">
+        <v>17098.877</v>
+      </c>
+      <c r="I54">
+        <v>435.46499999999997</v>
+      </c>
+      <c r="J54">
+        <v>8141.2309999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2462.049</v>
+      </c>
+      <c r="O54">
+        <v>11796.036</v>
+      </c>
+      <c r="P54">
+        <v>8427.9969999999994</v>
+      </c>
+      <c r="Q54">
+        <v>-24.445</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>57400</v>
+      </c>
+      <c r="T54">
+        <v>5302.8410000000003</v>
+      </c>
+      <c r="U54">
+        <v>946.24900000000002</v>
+      </c>
+      <c r="V54">
+        <v>354.18700000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-78.768000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-3.7719999999999998</v>
+      </c>
+      <c r="AA54">
+        <v>212.27799999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>183.28899999999999</v>
+      </c>
+      <c r="D55">
+        <v>3040.2649999999999</v>
+      </c>
+      <c r="E55">
+        <v>1539.7280000000001</v>
+      </c>
+      <c r="F55">
+        <v>860.49300000000005</v>
+      </c>
+      <c r="G55">
+        <v>3707.2330000000002</v>
+      </c>
+      <c r="H55">
+        <v>17398.342000000001</v>
+      </c>
+      <c r="I55">
+        <v>392.90699999999998</v>
+      </c>
+      <c r="J55">
+        <v>7914.5159999999996</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-16244.612999999999</v>
+      </c>
+      <c r="N55">
+        <v>2566.174</v>
+      </c>
+      <c r="O55">
+        <v>11867.925999999999</v>
+      </c>
+      <c r="P55">
+        <v>8374.7469999999994</v>
+      </c>
+      <c r="Q55">
+        <v>161.82</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5530.4160000000002</v>
+      </c>
+      <c r="U55">
+        <v>1108.069</v>
+      </c>
+      <c r="V55">
+        <v>419.10700000000003</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-62.125</v>
+      </c>
+      <c r="Y55">
+        <v>157.10599999999999</v>
+      </c>
+      <c r="Z55">
+        <v>-1.419</v>
+      </c>
+      <c r="AA55">
+        <v>183.28899999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>147.68299999999999</v>
+      </c>
+      <c r="D56">
+        <v>3169.2809999999999</v>
+      </c>
+      <c r="E56">
+        <v>1550.252</v>
+      </c>
+      <c r="F56">
+        <v>922.74300000000005</v>
+      </c>
+      <c r="G56">
+        <v>4161.2470000000003</v>
+      </c>
+      <c r="H56">
+        <v>17925.571</v>
+      </c>
+      <c r="I56">
+        <v>405.75099999999998</v>
+      </c>
+      <c r="J56">
+        <v>8210.9310000000005</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2608.1480000000001</v>
+      </c>
+      <c r="O56">
+        <v>12208.504000000001</v>
+      </c>
+      <c r="P56">
+        <v>8802.2610000000004</v>
+      </c>
+      <c r="Q56">
+        <v>312.904</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5717.067</v>
+      </c>
+      <c r="U56">
+        <v>1420.973</v>
+      </c>
+      <c r="V56">
+        <v>262.39100000000002</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>298.77300000000002</v>
+      </c>
+      <c r="Y56">
+        <v>179.64699999999999</v>
+      </c>
+      <c r="Z56">
+        <v>-64.605999999999995</v>
+      </c>
+      <c r="AA56">
+        <v>147.68299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>184.12200000000001</v>
+      </c>
+      <c r="D57">
+        <v>3247.8629999999998</v>
+      </c>
+      <c r="E57">
+        <v>1468.5630000000001</v>
+      </c>
+      <c r="F57">
+        <v>921.32899999999995</v>
+      </c>
+      <c r="G57">
+        <v>4178.4350000000004</v>
+      </c>
+      <c r="H57">
+        <v>18101.416000000001</v>
+      </c>
+      <c r="I57">
+        <v>442.18299999999999</v>
+      </c>
+      <c r="J57">
+        <v>8189.2139999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2597.6309999999999</v>
+      </c>
+      <c r="O57">
+        <v>12191.198</v>
+      </c>
+      <c r="P57">
+        <v>8504.4680000000008</v>
+      </c>
+      <c r="Q57">
+        <v>106.062</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5910.2179999999998</v>
+      </c>
+      <c r="U57">
+        <v>1527.0350000000001</v>
+      </c>
+      <c r="V57">
+        <v>847.9</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-355.65699999999998</v>
+      </c>
+      <c r="Y57">
+        <v>191.68899999999999</v>
+      </c>
+      <c r="Z57">
+        <v>-107.10599999999999</v>
+      </c>
+      <c r="AA57">
+        <v>184.12200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>208.02</v>
+      </c>
+      <c r="D58">
+        <v>3323.2440000000001</v>
+      </c>
+      <c r="E58">
+        <v>1525.8489999999999</v>
+      </c>
+      <c r="F58">
+        <v>956.78300000000002</v>
+      </c>
+      <c r="G58">
+        <v>3636.17</v>
+      </c>
+      <c r="H58">
+        <v>17617.432000000001</v>
+      </c>
+      <c r="I58">
+        <v>445.45299999999997</v>
+      </c>
+      <c r="J58">
+        <v>8298.6239999999998</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2088.6509999999998</v>
+      </c>
+      <c r="O58">
+        <v>11427.156000000001</v>
+      </c>
+      <c r="P58">
+        <v>8418.7780000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-561.79399999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>57900</v>
+      </c>
+      <c r="T58">
+        <v>6190.2759999999998</v>
+      </c>
+      <c r="U58">
+        <v>965.24099999999999</v>
+      </c>
+      <c r="V58">
+        <v>-69.991</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-45.97</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-198.947</v>
+      </c>
+      <c r="AA58">
+        <v>208.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-110.617</v>
+      </c>
+      <c r="D59">
+        <v>3286.1379999999999</v>
+      </c>
+      <c r="E59">
+        <v>1675.182</v>
+      </c>
+      <c r="F59">
+        <v>923.52599999999995</v>
+      </c>
+      <c r="G59">
+        <v>4300.7950000000001</v>
+      </c>
+      <c r="H59">
+        <v>18366.663</v>
+      </c>
+      <c r="I59">
+        <v>423.98599999999999</v>
+      </c>
+      <c r="J59">
+        <v>8148.7139999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-13382.203</v>
+      </c>
+      <c r="N59">
+        <v>2679.5160000000001</v>
+      </c>
+      <c r="O59">
+        <v>12347.557000000001</v>
+      </c>
+      <c r="P59">
+        <v>8499.6679999999997</v>
+      </c>
+      <c r="Q59">
+        <v>46.03</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6019.1059999999998</v>
+      </c>
+      <c r="U59">
+        <v>1011.271</v>
+      </c>
+      <c r="V59">
+        <v>410.089</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-110.86799999999999</v>
+      </c>
+      <c r="Y59">
+        <v>231.43899999999999</v>
+      </c>
+      <c r="Z59">
+        <v>-92.781000000000006</v>
+      </c>
+      <c r="AA59">
+        <v>-110.617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>170.477</v>
+      </c>
+      <c r="D60">
+        <v>3432.4589999999998</v>
+      </c>
+      <c r="E60">
+        <v>1666.9690000000001</v>
+      </c>
+      <c r="F60">
+        <v>986.38300000000004</v>
+      </c>
+      <c r="G60">
+        <v>4780.9210000000003</v>
+      </c>
+      <c r="H60">
+        <v>18946.817999999999</v>
+      </c>
+      <c r="I60">
+        <v>490.46</v>
+      </c>
+      <c r="J60">
+        <v>9101.0519999999997</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2334.29</v>
+      </c>
+      <c r="O60">
+        <v>12736.776</v>
+      </c>
+      <c r="P60">
+        <v>9210.9779999999992</v>
+      </c>
+      <c r="Q60">
+        <v>-77.536000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6210.0420000000004</v>
+      </c>
+      <c r="U60">
+        <v>933.73500000000001</v>
+      </c>
+      <c r="V60">
+        <v>31.442</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>585.96100000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-522.03899999999999</v>
+      </c>
+      <c r="AA60">
+        <v>170.477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>215.87200000000001</v>
+      </c>
+      <c r="D61">
+        <v>3523.154</v>
+      </c>
+      <c r="E61">
+        <v>1699.8920000000001</v>
+      </c>
+      <c r="F61">
+        <v>1022.139</v>
+      </c>
+      <c r="G61">
+        <v>4737.8860000000004</v>
+      </c>
+      <c r="H61">
+        <v>18894.828000000001</v>
+      </c>
+      <c r="I61">
+        <v>487.94499999999999</v>
+      </c>
+      <c r="J61">
+        <v>8830.1990000000005</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2410.5540000000001</v>
+      </c>
+      <c r="O61">
+        <v>12805.492</v>
+      </c>
+      <c r="P61">
+        <v>9197.6270000000004</v>
+      </c>
+      <c r="Q61">
+        <v>113.684</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6089.3360000000002</v>
+      </c>
+      <c r="U61">
+        <v>1047.4190000000001</v>
+      </c>
+      <c r="V61">
+        <v>678.99599999999998</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-361.214</v>
+      </c>
+      <c r="Y61">
+        <v>251.89699999999999</v>
+      </c>
+      <c r="Z61">
+        <v>10.493</v>
+      </c>
+      <c r="AA61">
+        <v>215.87200000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-6</v>
+      </c>
+      <c r="D62">
+        <v>3530.846</v>
+      </c>
+      <c r="E62">
+        <v>1724.2280000000001</v>
+      </c>
+      <c r="F62">
+        <v>1015.715</v>
+      </c>
+      <c r="G62">
+        <v>4503.28</v>
+      </c>
+      <c r="H62">
+        <v>18514.875</v>
+      </c>
+      <c r="I62">
+        <v>513.95000000000005</v>
+      </c>
+      <c r="J62">
+        <v>9001.3080000000009</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2399.1379999999999</v>
+      </c>
+      <c r="O62">
+        <v>12566.637000000001</v>
+      </c>
+      <c r="P62">
+        <v>9130.3449999999993</v>
+      </c>
+      <c r="Q62">
+        <v>451.697</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>60400</v>
+      </c>
+      <c r="T62">
+        <v>5948.2380000000003</v>
+      </c>
+      <c r="U62">
+        <v>1499.116</v>
+      </c>
+      <c r="V62">
+        <v>436.673</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-252.84899999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>507.29500000000002</v>
+      </c>
+      <c r="AA62">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>97.433999999999997</v>
+      </c>
+      <c r="D63">
+        <v>3578.6190000000001</v>
+      </c>
+      <c r="E63">
+        <v>1855.2850000000001</v>
+      </c>
+      <c r="F63">
+        <v>996.28599999999994</v>
+      </c>
+      <c r="G63">
+        <v>4199.5600000000004</v>
+      </c>
+      <c r="H63">
+        <v>18514.198</v>
+      </c>
+      <c r="I63">
+        <v>480.28800000000001</v>
+      </c>
+      <c r="J63">
+        <v>8705.0720000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-13118.741</v>
+      </c>
+      <c r="N63">
+        <v>2443.6179999999999</v>
+      </c>
+      <c r="O63">
+        <v>12679.761</v>
+      </c>
+      <c r="P63">
+        <v>9117.8459999999995</v>
+      </c>
+      <c r="Q63">
+        <v>-457.68900000000002</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5834.4369999999999</v>
+      </c>
+      <c r="U63">
+        <v>1041.4269999999999</v>
+      </c>
+      <c r="V63">
+        <v>429.00200000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-333.09699999999998</v>
+      </c>
+      <c r="Y63">
+        <v>274.78300000000002</v>
+      </c>
+      <c r="Z63">
+        <v>19.373000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>97.433999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>53.381999999999998</v>
+      </c>
+      <c r="D64">
+        <v>3714.085</v>
+      </c>
+      <c r="E64">
+        <v>1875.403</v>
+      </c>
+      <c r="F64">
+        <v>1043.06</v>
+      </c>
+      <c r="G64">
+        <v>4496.2169999999996</v>
+      </c>
+      <c r="H64">
+        <v>18691.63</v>
+      </c>
+      <c r="I64">
+        <v>504.35300000000001</v>
+      </c>
+      <c r="J64">
+        <v>8679.4189999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2645.6619999999998</v>
+      </c>
+      <c r="O64">
+        <v>12796.023999999999</v>
+      </c>
+      <c r="P64">
+        <v>9101.51</v>
+      </c>
+      <c r="Q64">
+        <v>241.989</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5895.6059999999998</v>
+      </c>
+      <c r="U64">
+        <v>1283.4159999999999</v>
+      </c>
+      <c r="V64">
+        <v>516.63699999999994</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-70.456999999999994</v>
+      </c>
+      <c r="Y64">
+        <v>277.83800000000002</v>
+      </c>
+      <c r="Z64">
+        <v>36.945999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>53.381999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>571.33199999999999</v>
+      </c>
+      <c r="D65">
+        <v>3726.8029999999999</v>
+      </c>
+      <c r="E65">
+        <v>1850.425</v>
+      </c>
+      <c r="F65">
+        <v>1029.174</v>
+      </c>
+      <c r="G65">
+        <v>4261.3590000000004</v>
+      </c>
+      <c r="H65">
+        <v>18925.652999999998</v>
+      </c>
+      <c r="I65">
+        <v>498.42200000000003</v>
+      </c>
+      <c r="J65">
+        <v>8682.0020000000004</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2639.4690000000001</v>
+      </c>
+      <c r="O65">
+        <v>12834.518</v>
+      </c>
+      <c r="P65">
+        <v>9124.7659999999996</v>
+      </c>
+      <c r="Q65">
+        <v>-369.92</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>6091.1350000000002</v>
+      </c>
+      <c r="U65">
+        <v>913.49599999999998</v>
+      </c>
+      <c r="V65">
+        <v>535.62300000000005</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-404.42200000000003</v>
+      </c>
+      <c r="Y65">
+        <v>290</v>
+      </c>
+      <c r="Z65">
+        <v>-259.90300000000002</v>
+      </c>
+      <c r="AA65">
+        <v>571.33199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1503.95</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>9246.8829999999998</v>
+      </c>
+      <c r="H66">
+        <v>18755.776000000002</v>
+      </c>
+      <c r="I66">
+        <v>456.61900000000003</v>
+      </c>
+      <c r="J66">
+        <v>8944.6759999999995</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2710.9639999999999</v>
+      </c>
+      <c r="O66">
+        <v>12932.777</v>
+      </c>
+      <c r="P66">
+        <v>9104.9380000000001</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>70300</v>
+      </c>
+      <c r="T66">
+        <v>5822.9989999999998</v>
+      </c>
+      <c r="U66">
+        <v>674.77599999999995</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>447.697</v>
+      </c>
+      <c r="D67">
+        <v>2629.3409999999999</v>
+      </c>
+      <c r="E67">
+        <v>1900.5609999999999</v>
+      </c>
+      <c r="F67">
+        <v>777.29600000000005</v>
+      </c>
+      <c r="G67">
+        <v>4603.8999999999996</v>
+      </c>
+      <c r="H67">
+        <v>19388.263999999999</v>
+      </c>
+      <c r="I67">
+        <v>464.79</v>
+      </c>
+      <c r="J67">
+        <v>8636.8780000000006</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-12839.156000000001</v>
+      </c>
+      <c r="N67">
+        <v>2813.5770000000002</v>
+      </c>
+      <c r="O67">
+        <v>13067.825000000001</v>
+      </c>
+      <c r="P67">
+        <v>9089.0949999999993</v>
+      </c>
+      <c r="Q67">
+        <v>534.57399999999996</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6320.4390000000003</v>
+      </c>
+      <c r="U67">
+        <v>1472.232</v>
+      </c>
+      <c r="V67">
+        <v>840.678</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-58.936999999999998</v>
+      </c>
+      <c r="Y67">
+        <v>282</v>
+      </c>
+      <c r="Z67">
+        <v>-4.8280000000000003</v>
+      </c>
+      <c r="AA67">
+        <v>447.697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>127.001</v>
+      </c>
+      <c r="D68">
+        <v>2700.0050000000001</v>
+      </c>
+      <c r="E68">
+        <v>2053.8119999999999</v>
+      </c>
+      <c r="F68">
+        <v>805.34100000000001</v>
+      </c>
+      <c r="G68">
+        <v>4023.768</v>
+      </c>
+      <c r="H68">
+        <v>19341.784</v>
+      </c>
+      <c r="I68">
+        <v>439.74099999999999</v>
+      </c>
+      <c r="J68">
+        <v>8616.1710000000003</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2773.3249999999998</v>
+      </c>
+      <c r="O68">
+        <v>13060.183999999999</v>
+      </c>
+      <c r="P68">
+        <v>9093.1370000000006</v>
+      </c>
+      <c r="Q68">
+        <v>-764.83</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6281.6</v>
+      </c>
+      <c r="U68">
+        <v>711.99699999999996</v>
+      </c>
+      <c r="V68">
+        <v>141.65899999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-306.24099999999999</v>
+      </c>
+      <c r="Y68">
+        <v>294.64299999999997</v>
+      </c>
+      <c r="Z68">
+        <v>101.764</v>
+      </c>
+      <c r="AA68">
+        <v>127.001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-214.476</v>
+      </c>
+      <c r="D69">
+        <v>2767.7559999999999</v>
+      </c>
+      <c r="E69">
+        <v>2091.0740000000001</v>
+      </c>
+      <c r="F69">
+        <v>816.14700000000005</v>
+      </c>
+      <c r="G69">
+        <v>4033.549</v>
+      </c>
+      <c r="H69">
+        <v>19013.339</v>
+      </c>
+      <c r="I69">
+        <v>566.91800000000001</v>
+      </c>
+      <c r="J69">
+        <v>8582.2569999999996</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2874.7930000000001</v>
+      </c>
+      <c r="O69">
+        <v>13017.32</v>
+      </c>
+      <c r="P69">
+        <v>9098.5249999999996</v>
+      </c>
+      <c r="Q69">
+        <v>85.78</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5996.0190000000002</v>
+      </c>
+      <c r="U69">
+        <v>846.11</v>
+      </c>
+      <c r="V69">
+        <v>503.11900000000003</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-164.654</v>
+      </c>
+      <c r="Y69">
+        <v>326.44600000000003</v>
+      </c>
+      <c r="Z69">
+        <v>71.352999999999994</v>
+      </c>
+      <c r="AA69">
+        <v>-214.476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>303.39600000000002</v>
+      </c>
+      <c r="D70">
+        <v>2786.5650000000001</v>
+      </c>
+      <c r="E70">
+        <v>1714.75</v>
+      </c>
+      <c r="F70">
+        <v>844.87800000000004</v>
+      </c>
+      <c r="G70">
+        <v>8770.7009999999991</v>
+      </c>
+      <c r="H70">
+        <v>18974.536</v>
+      </c>
+      <c r="I70">
+        <v>509.11599999999999</v>
+      </c>
+      <c r="J70">
+        <v>9158.018</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3067.52</v>
+      </c>
+      <c r="O70">
+        <v>13077.11</v>
+      </c>
+      <c r="P70">
+        <v>9336.2309999999998</v>
+      </c>
+      <c r="Q70">
+        <v>-20.067</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>74500</v>
+      </c>
+      <c r="T70">
+        <v>5897.4260000000004</v>
+      </c>
+      <c r="U70">
+        <v>508.23399999999998</v>
+      </c>
+      <c r="V70">
+        <v>480.73599999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-236.42500000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>83.772000000000006</v>
+      </c>
+      <c r="AA70">
+        <v>303.39600000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>178.68600000000001</v>
+      </c>
+      <c r="D71">
+        <v>2855.444</v>
+      </c>
+      <c r="E71">
+        <v>1830.59</v>
+      </c>
+      <c r="F71">
+        <v>819.85900000000004</v>
+      </c>
+      <c r="G71">
+        <v>8673.5550000000003</v>
+      </c>
+      <c r="H71">
+        <v>18942.371999999999</v>
+      </c>
+      <c r="I71">
+        <v>437.733</v>
+      </c>
+      <c r="J71">
+        <v>8991.8850000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-13202.225</v>
+      </c>
+      <c r="N71">
+        <v>2947.5230000000001</v>
+      </c>
+      <c r="O71">
+        <v>13125.79</v>
+      </c>
+      <c r="P71">
+        <v>9464.0210000000006</v>
+      </c>
+      <c r="Q71">
+        <v>-71.302000000000007</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5816.5820000000003</v>
+      </c>
+      <c r="U71">
+        <v>358.87400000000002</v>
+      </c>
+      <c r="V71">
+        <v>344.70499999999998</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-222.547</v>
+      </c>
+      <c r="Y71">
+        <v>288</v>
+      </c>
+      <c r="Z71">
+        <v>30.361999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>178.68600000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>267.27600000000001</v>
+      </c>
+      <c r="D72">
+        <v>2889.0529999999999</v>
+      </c>
+      <c r="E72">
+        <v>1842.1079999999999</v>
+      </c>
+      <c r="F72">
+        <v>819.96400000000006</v>
+      </c>
+      <c r="G72">
+        <v>9085.3619999999992</v>
+      </c>
+      <c r="H72">
+        <v>19435.563999999998</v>
+      </c>
+      <c r="I72">
+        <v>542.27200000000005</v>
+      </c>
+      <c r="J72">
+        <v>7895.277</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4783.7780000000002</v>
+      </c>
+      <c r="O72">
+        <v>13903.898999999999</v>
+      </c>
+      <c r="P72">
+        <v>9944.0869999999995</v>
+      </c>
+      <c r="Q72">
+        <v>32.53</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5531.665</v>
+      </c>
+      <c r="U72">
+        <v>389.26400000000001</v>
+      </c>
+      <c r="V72">
+        <v>349.96899999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-83.361999999999995</v>
+      </c>
+      <c r="Y72">
+        <v>280.29599999999999</v>
+      </c>
+      <c r="Z72">
+        <v>-7.2249999999999996</v>
+      </c>
+      <c r="AA72">
+        <v>267.27600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>-136.79599999999999</v>
+      </c>
+      <c r="D73">
+        <v>2846.53</v>
+      </c>
+      <c r="E73">
+        <v>1847.086</v>
+      </c>
+      <c r="F73">
+        <v>782.76</v>
+      </c>
+      <c r="G73">
+        <v>8929.5010000000002</v>
+      </c>
+      <c r="H73">
+        <v>19357.789000000001</v>
+      </c>
+      <c r="I73">
+        <v>458.92700000000002</v>
+      </c>
+      <c r="J73">
+        <v>8158.34</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4855.1040000000003</v>
+      </c>
+      <c r="O73">
+        <v>14264.115</v>
+      </c>
+      <c r="P73">
+        <v>10224.737999999999</v>
+      </c>
+      <c r="Q73">
+        <v>60.006999999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5093.674</v>
+      </c>
+      <c r="U73">
+        <v>448.21499999999997</v>
+      </c>
+      <c r="V73">
+        <v>417.00900000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-117.43</v>
+      </c>
+      <c r="Y73">
+        <v>282.33300000000003</v>
+      </c>
+      <c r="Z73">
+        <v>-0.53900000000000003</v>
+      </c>
+      <c r="AA73">
+        <v>-136.79599999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-149.77199999999999</v>
+      </c>
+      <c r="D74">
+        <v>2821.1239999999998</v>
+      </c>
+      <c r="E74">
+        <v>1858.6079999999999</v>
+      </c>
+      <c r="F74">
+        <v>794.05499999999995</v>
+      </c>
+      <c r="G74">
+        <v>8424.1589999999997</v>
+      </c>
+      <c r="H74">
+        <v>19110.252</v>
+      </c>
+      <c r="I74">
+        <v>463.27</v>
+      </c>
+      <c r="J74">
+        <v>7890.11</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4891.1610000000001</v>
+      </c>
+      <c r="O74">
+        <v>14077.213</v>
+      </c>
+      <c r="P74">
+        <v>10102.216</v>
+      </c>
+      <c r="Q74">
+        <v>-124.735</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>77700</v>
+      </c>
+      <c r="T74">
+        <v>5033.0389999999998</v>
+      </c>
+      <c r="U74">
+        <v>323.03800000000001</v>
+      </c>
+      <c r="V74">
+        <v>419.16399999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-202.01499999999999</v>
+      </c>
+      <c r="Y74">
+        <v>282.73700000000002</v>
+      </c>
+      <c r="Z74">
+        <v>-8.1519999999999992</v>
+      </c>
+      <c r="AA74">
+        <v>-149.77199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>149.28899999999999</v>
+      </c>
+      <c r="D75">
+        <v>2743.1120000000001</v>
+      </c>
+      <c r="E75">
+        <v>1953.422</v>
+      </c>
+      <c r="F75">
+        <v>778.17700000000002</v>
+      </c>
+      <c r="G75">
+        <v>9225.0759999999991</v>
+      </c>
+      <c r="H75">
+        <v>22605.944</v>
+      </c>
+      <c r="I75">
+        <v>365.19200000000001</v>
+      </c>
+      <c r="J75">
+        <v>5541.1509999999998</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-16776.267</v>
+      </c>
+      <c r="N75">
+        <v>8230.8770000000004</v>
+      </c>
+      <c r="O75">
+        <v>17376.226999999999</v>
+      </c>
+      <c r="P75">
+        <v>13456.893</v>
+      </c>
+      <c r="Q75">
+        <v>146.01400000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5229.7169999999996</v>
+      </c>
+      <c r="U75">
+        <v>459.24200000000002</v>
+      </c>
+      <c r="V75">
+        <v>22.341999999999999</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>324.95100000000002</v>
+      </c>
+      <c r="Y75">
+        <v>2871.6379999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-4.109</v>
+      </c>
+      <c r="AA75">
+        <v>149.28899999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>273.55099999999999</v>
+      </c>
+      <c r="D76">
+        <v>2842.7049999999999</v>
+      </c>
+      <c r="E76">
+        <v>2010.8009999999999</v>
+      </c>
+      <c r="F76">
+        <v>884.952</v>
+      </c>
+      <c r="G76">
+        <v>6390.6289999999999</v>
+      </c>
+      <c r="H76">
+        <v>19930.96</v>
+      </c>
+      <c r="I76">
+        <v>388.95499999999998</v>
+      </c>
+      <c r="J76">
+        <v>5116.7110000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>5706.9440000000004</v>
+      </c>
+      <c r="O76">
+        <v>14502.157999999999</v>
+      </c>
+      <c r="P76">
+        <v>12031.003000000001</v>
+      </c>
+      <c r="Q76">
+        <v>3120.9760000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5428.8019999999997</v>
+      </c>
+      <c r="U76">
+        <v>3575.6379999999999</v>
+      </c>
+      <c r="V76">
+        <v>1152.586</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-1635.5039999999999</v>
+      </c>
+      <c r="Y76">
+        <v>2950.3359999999998</v>
+      </c>
+      <c r="Z76">
+        <v>-4.6920000000000002</v>
+      </c>
+      <c r="AA76">
+        <v>273.55099999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>143.27000000000001</v>
+      </c>
+      <c r="D77">
+        <v>2904.078</v>
+      </c>
+      <c r="E77">
+        <v>1901.2249999999999</v>
+      </c>
+      <c r="F77">
+        <v>912.90599999999995</v>
+      </c>
+      <c r="G77">
+        <v>3998.7179999999998</v>
+      </c>
+      <c r="H77">
+        <v>17451.830000000002</v>
+      </c>
+      <c r="I77">
+        <v>332.13600000000002</v>
+      </c>
+      <c r="J77">
+        <v>7742.7209999999995</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2206.64</v>
+      </c>
+      <c r="O77">
+        <v>13643.248</v>
+      </c>
+      <c r="P77">
+        <v>11192.254999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-2325.2689999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3808.5819999999999</v>
+      </c>
+      <c r="U77">
+        <v>1253.2560000000001</v>
+      </c>
+      <c r="V77">
+        <v>640.71</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-2693.2109999999998</v>
+      </c>
+      <c r="Y77">
+        <v>2953.8789999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-96.262</v>
+      </c>
+      <c r="AA77">
+        <v>143.27000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>244.87100000000001</v>
+      </c>
+      <c r="D78">
+        <v>2898.5839999999998</v>
+      </c>
+      <c r="E78">
+        <v>1795.598</v>
+      </c>
+      <c r="F78">
+        <v>897.95899999999995</v>
+      </c>
+      <c r="G78">
+        <v>3690.17</v>
+      </c>
+      <c r="H78">
+        <v>17311.394</v>
+      </c>
+      <c r="I78">
+        <v>403.84</v>
+      </c>
+      <c r="J78">
+        <v>7708.9920000000002</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2372.098</v>
+      </c>
+      <c r="O78">
+        <v>13811.776</v>
+      </c>
+      <c r="P78">
+        <v>11175.946</v>
+      </c>
+      <c r="Q78">
+        <v>-148.423</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>65000</v>
+      </c>
+      <c r="T78">
+        <v>3499.6179999999999</v>
+      </c>
+      <c r="U78">
+        <v>1102.3720000000001</v>
+      </c>
+      <c r="V78">
+        <v>680.53</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-692.68600000000004</v>
+      </c>
+      <c r="Y78">
+        <v>2992.3339999999998</v>
+      </c>
+      <c r="Z78">
+        <v>90.418000000000006</v>
+      </c>
+      <c r="AA78">
+        <v>244.87100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>239.59299999999999</v>
+      </c>
+      <c r="D79">
+        <v>2841.2370000000001</v>
+      </c>
+      <c r="E79">
+        <v>1820.1320000000001</v>
+      </c>
+      <c r="F79">
+        <v>865.78800000000001</v>
+      </c>
+      <c r="G79">
+        <v>4023.9389999999999</v>
+      </c>
+      <c r="H79">
+        <v>17596.3</v>
+      </c>
+      <c r="I79">
+        <v>340.09199999999998</v>
+      </c>
+      <c r="J79">
+        <v>8197.3349999999991</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-104.94199999999999</v>
+      </c>
+      <c r="N79">
+        <v>2220.7460000000001</v>
+      </c>
+      <c r="O79">
+        <v>14234.92</v>
+      </c>
+      <c r="P79">
+        <v>11678.857</v>
+      </c>
+      <c r="Q79">
+        <v>279.77</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3361.38</v>
+      </c>
+      <c r="U79">
+        <v>1381.7639999999999</v>
+      </c>
+      <c r="V79">
+        <v>360.38099999999997</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>96.992000000000004</v>
+      </c>
+      <c r="Y79">
+        <v>2979.1709999999998</v>
+      </c>
+      <c r="Z79">
+        <v>-5.0940000000000003</v>
+      </c>
+      <c r="AA79">
+        <v>239.59299999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>201.602</v>
+      </c>
+      <c r="D80">
+        <v>2879.9789999999998</v>
+      </c>
+      <c r="E80">
+        <v>1772.259</v>
+      </c>
+      <c r="F80">
+        <v>895.41499999999996</v>
+      </c>
+      <c r="G80">
+        <v>5779.83</v>
+      </c>
+      <c r="H80">
+        <v>19305.091</v>
+      </c>
+      <c r="I80">
+        <v>357.28300000000002</v>
+      </c>
+      <c r="J80">
+        <v>7618.1639999999998</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4274.5630000000001</v>
+      </c>
+      <c r="O80">
+        <v>15729.337</v>
+      </c>
+      <c r="P80">
+        <v>12871.208000000001</v>
+      </c>
+      <c r="Q80">
+        <v>1547.231</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3575.7539999999999</v>
+      </c>
+      <c r="U80">
+        <v>2928.91</v>
+      </c>
+      <c r="V80">
+        <v>651.12199999999996</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1142.5809999999999</v>
+      </c>
+      <c r="Y80">
+        <v>2986.0790000000002</v>
+      </c>
+      <c r="Z80">
+        <v>-136.726</v>
+      </c>
+      <c r="AA80">
+        <v>201.602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>158.67400000000001</v>
+      </c>
+      <c r="D81">
+        <v>2924.0659999999998</v>
+      </c>
+      <c r="E81">
+        <v>1804.39</v>
+      </c>
+      <c r="F81">
+        <v>952.34699999999998</v>
+      </c>
+      <c r="G81">
+        <v>3429.6750000000002</v>
+      </c>
+      <c r="H81">
+        <v>17046.671999999999</v>
+      </c>
+      <c r="I81">
+        <v>388.50400000000002</v>
+      </c>
+      <c r="J81">
+        <v>7591.9340000000002</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2499.241</v>
+      </c>
+      <c r="O81">
+        <v>13989.397999999999</v>
+      </c>
+      <c r="P81">
+        <v>11106.072</v>
+      </c>
+      <c r="Q81">
+        <v>-2218.3820000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3057.2739999999999</v>
+      </c>
+      <c r="U81">
+        <v>710.51400000000001</v>
+      </c>
+      <c r="V81">
+        <v>482.72699999999998</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-2621.2710000000002</v>
+      </c>
+      <c r="Y81">
+        <v>2985.1610000000001</v>
+      </c>
+      <c r="Z81">
+        <v>133.667</v>
+      </c>
+      <c r="AA81">
+        <v>158.67400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>173.773</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2905.3220000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1824.2819999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>848.44100000000003</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3148.7240000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>16988.516</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>434.25299999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7678.01</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2476.143</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>14091.736000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11193.971</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-315.54700000000003</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>67000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2896.78</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>324.95800000000003</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>484.798</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-465.07900000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>2977.9229999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-10.803000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>173.773</v>
       </c>
     </row>
